--- a/underperforming_ats_report_ten_west.xlsx
+++ b/underperforming_ats_report_ten_west.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H351"/>
+  <dimension ref="A1:H360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9930,35 +9930,35 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>B0942VPBPM</t>
+          <t>B09YKYJM93</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TW-CRI-2008539</t>
+          <t>TW-CRI-2009464</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>113-0233982-7669066</t>
+          <t>112-8929525-9091464</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 2:53:33 AM PDT</t>
+          <t>Aug 8, 2025 4:32:17 AM PDT</t>
         </is>
       </c>
       <c r="E280" t="n">
         <v>1</v>
       </c>
       <c r="F280" t="n">
-        <v>11</v>
+        <v>11.47</v>
       </c>
       <c r="G280" t="n">
-        <v>11</v>
+        <v>11.47</v>
       </c>
       <c r="H280" t="n">
-        <v>11.7</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="281">
@@ -9974,12 +9974,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>114-0067461-2458648</t>
+          <t>113-0233982-7669066</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 8:20:45 AM PDT</t>
+          <t>Aug 11, 2025 2:53:33 AM PDT</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -10008,12 +10008,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>112-2316231-8001864</t>
+          <t>114-0067461-2458648</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 8:10:38 PM PDT</t>
+          <t>Aug 11, 2025 8:20:45 AM PDT</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -10032,307 +10032,307 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>B07KMX1GYX</t>
+          <t>B0942VPBPM</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>TW-CRI-2005282</t>
+          <t>TW-CRI-2008539</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>114-2401907-5305008</t>
+          <t>112-2316231-8001864</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 11:19:35 PM PDT</t>
+          <t>Aug 11, 2025 8:10:38 PM PDT</t>
         </is>
       </c>
       <c r="E283" t="n">
         <v>1</v>
       </c>
       <c r="F283" t="n">
-        <v>13.06</v>
+        <v>11</v>
       </c>
       <c r="G283" t="n">
-        <v>13.06</v>
+        <v>11</v>
       </c>
       <c r="H283" t="n">
-        <v>14.48</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>B07KMX1GYX</t>
+          <t>B007MPJ8YU</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>TW-CRI-2005282</t>
+          <t>TW-26002-NAK</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>113-3062868-5817057</t>
+          <t>113-6051038-3238658</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 8:04:28 AM PDT</t>
+          <t>Jul 28, 2025 2:56:35 PM PDT</t>
         </is>
       </c>
       <c r="E284" t="n">
         <v>1</v>
       </c>
       <c r="F284" t="n">
-        <v>13.06</v>
+        <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>13.06</v>
+        <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>14.48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>B07KMYWXL5</t>
+          <t>B07KMX1GYX</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>TW-CRI-2005283</t>
+          <t>TW-CRI-2005282</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>112-9580704-4237065</t>
+          <t>114-2401907-5305008</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 12:10:24 AM PDT</t>
+          <t>Aug 8, 2025 11:19:35 PM PDT</t>
         </is>
       </c>
       <c r="E285" t="n">
         <v>1</v>
       </c>
       <c r="F285" t="n">
-        <v>11.14</v>
+        <v>13.06</v>
       </c>
       <c r="G285" t="n">
-        <v>11.14</v>
+        <v>13.06</v>
       </c>
       <c r="H285" t="n">
-        <v>12.24</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>B07KMYWXL5</t>
+          <t>B07KMX1GYX</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>TW-CRI-2005283</t>
+          <t>TW-CRI-2005282</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>111-8028921-9663403</t>
+          <t>113-3062868-5817057</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 9:49:13 AM PDT</t>
+          <t>Aug 9, 2025 8:04:28 AM PDT</t>
         </is>
       </c>
       <c r="E286" t="n">
         <v>1</v>
       </c>
       <c r="F286" t="n">
-        <v>11.14</v>
+        <v>13.06</v>
       </c>
       <c r="G286" t="n">
-        <v>11.14</v>
+        <v>13.06</v>
       </c>
       <c r="H286" t="n">
-        <v>12.24</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B07KMYWXL5</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-CRI-2005283</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>112-9803505-5053859</t>
+          <t>112-9580704-4237065</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 12:13:33 PM PDT</t>
+          <t>Aug 11, 2025 12:10:24 AM PDT</t>
         </is>
       </c>
       <c r="E287" t="n">
         <v>1</v>
       </c>
       <c r="F287" t="n">
-        <v>8.24</v>
+        <v>11.14</v>
       </c>
       <c r="G287" t="n">
-        <v>8.24</v>
+        <v>11.14</v>
       </c>
       <c r="H287" t="n">
-        <v>8.99</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B07KMYWXL5</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-CRI-2005283</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>112-4918621-5219407</t>
+          <t>111-8028921-9663403</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 3:17:33 AM PDT</t>
+          <t>Aug 11, 2025 9:49:13 AM PDT</t>
         </is>
       </c>
       <c r="E288" t="n">
         <v>1</v>
       </c>
       <c r="F288" t="n">
-        <v>8.24</v>
+        <v>11.14</v>
       </c>
       <c r="G288" t="n">
-        <v>8.24</v>
+        <v>11.14</v>
       </c>
       <c r="H288" t="n">
-        <v>8.99</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B07KMYWCYG</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-CRI-2005286</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>111-8018522-0784242</t>
+          <t>113-4933132-3023434</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 7:43:03 PM PDT</t>
+          <t>Aug 8, 2025 11:36:15 PM PDT</t>
         </is>
       </c>
       <c r="E289" t="n">
         <v>1</v>
       </c>
       <c r="F289" t="n">
-        <v>8.24</v>
+        <v>12.38</v>
       </c>
       <c r="G289" t="n">
-        <v>8.24</v>
+        <v>12.38</v>
       </c>
       <c r="H289" t="n">
-        <v>8.99</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B07KMYWCYG</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-CRI-2005286</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>112-3227875-8635406</t>
+          <t>112-6768395-6054632</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 9:10:44 AM PDT</t>
+          <t>Aug 10, 2025 8:00:43 AM PDT</t>
         </is>
       </c>
       <c r="E290" t="n">
         <v>1</v>
       </c>
       <c r="F290" t="n">
-        <v>8.24</v>
+        <v>12.38</v>
       </c>
       <c r="G290" t="n">
-        <v>8.24</v>
+        <v>12.38</v>
       </c>
       <c r="H290" t="n">
-        <v>8.99</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B07KMYWCYG</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-CRI-2005286</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>113-9250474-5825841</t>
+          <t>111-9091500-1012266</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 6:58:01 AM PDT</t>
+          <t>Aug 11, 2025 3:05:33 AM PDT</t>
         </is>
       </c>
       <c r="E291" t="n">
         <v>1</v>
       </c>
       <c r="F291" t="n">
-        <v>8.24</v>
+        <v>12.38</v>
       </c>
       <c r="G291" t="n">
-        <v>8.24</v>
+        <v>12.38</v>
       </c>
       <c r="H291" t="n">
-        <v>8.99</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="292">
@@ -10348,12 +10348,12 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>111-4081910-7069842</t>
+          <t>112-9803505-5053859</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 7:38:23 AM PDT</t>
+          <t>Jul 28, 2025 12:13:33 PM PDT</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -10382,12 +10382,12 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>112-6911502-4808211</t>
+          <t>112-4918621-5219407</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 10:25:55 PM PDT</t>
+          <t>Jul 30, 2025 3:17:33 AM PDT</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -10416,22 +10416,22 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>113-6465728-6544209</t>
+          <t>111-8018522-0784242</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 7:30:51 AM PDT</t>
+          <t>Jul 31, 2025 7:43:03 PM PDT</t>
         </is>
       </c>
       <c r="E294" t="n">
         <v>1</v>
       </c>
       <c r="F294" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="G294" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="H294" t="n">
         <v>8.99</v>
@@ -10450,22 +10450,22 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>114-9353932-6083422</t>
+          <t>112-3227875-8635406</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 11:49:25 PM PDT</t>
+          <t>Aug 2, 2025 9:10:44 AM PDT</t>
         </is>
       </c>
       <c r="E295" t="n">
         <v>1</v>
       </c>
       <c r="F295" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="G295" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="H295" t="n">
         <v>8.99</v>
@@ -10484,22 +10484,22 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>114-9353932-6083422</t>
+          <t>113-9250474-5825841</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 11:49:25 PM PDT</t>
+          <t>Aug 4, 2025 6:58:01 AM PDT</t>
         </is>
       </c>
       <c r="E296" t="n">
         <v>1</v>
       </c>
       <c r="F296" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="G296" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="H296" t="n">
         <v>8.99</v>
@@ -10518,25 +10518,25 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>114-6357248-7549038</t>
+          <t>111-4081910-7069842</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 5:35:42 AM PDT</t>
+          <t>Aug 9, 2025 7:38:23 AM PDT</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F297" t="n">
-        <v>23.48</v>
+        <v>8.24</v>
       </c>
       <c r="G297" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="H297" t="n">
-        <v>35.96</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="298">
@@ -10552,22 +10552,22 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>112-8636883-0842628</t>
+          <t>112-6911502-4808211</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 8:52:04 AM PDT</t>
+          <t>Aug 9, 2025 10:25:55 PM PDT</t>
         </is>
       </c>
       <c r="E298" t="n">
         <v>1</v>
       </c>
       <c r="F298" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="G298" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="H298" t="n">
         <v>8.99</v>
@@ -10576,236 +10576,236 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>B07KMYWCYG</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TW-CRI-2005286</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>113-4933132-3023434</t>
+          <t>113-6465728-6544209</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 11:36:15 PM PDT</t>
+          <t>Aug 10, 2025 7:30:51 AM PDT</t>
         </is>
       </c>
       <c r="E299" t="n">
         <v>1</v>
       </c>
       <c r="F299" t="n">
-        <v>12.38</v>
+        <v>5.87</v>
       </c>
       <c r="G299" t="n">
-        <v>12.38</v>
+        <v>5.87</v>
       </c>
       <c r="H299" t="n">
-        <v>13.44</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>B07KMYWCYG</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TW-CRI-2005286</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>112-6768395-6054632</t>
+          <t>114-9353932-6083422</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 8:00:43 AM PDT</t>
+          <t>Aug 10, 2025 11:49:25 PM PDT</t>
         </is>
       </c>
       <c r="E300" t="n">
         <v>1</v>
       </c>
       <c r="F300" t="n">
-        <v>12.38</v>
+        <v>5.87</v>
       </c>
       <c r="G300" t="n">
-        <v>12.38</v>
+        <v>5.87</v>
       </c>
       <c r="H300" t="n">
-        <v>13.44</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>B07KMYWCYG</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TW-CRI-2005286</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>111-9091500-1012266</t>
+          <t>114-9353932-6083422</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 3:05:33 AM PDT</t>
+          <t>Aug 10, 2025 11:49:25 PM PDT</t>
         </is>
       </c>
       <c r="E301" t="n">
         <v>1</v>
       </c>
       <c r="F301" t="n">
-        <v>12.38</v>
+        <v>5.87</v>
       </c>
       <c r="G301" t="n">
-        <v>12.38</v>
+        <v>5.87</v>
       </c>
       <c r="H301" t="n">
-        <v>13.44</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>B08ZJS5WGT</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TW-CRI-2008788</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>113-7315202-6419435</t>
+          <t>114-6357248-7549038</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 1:56:33 AM PDT</t>
+          <t>Aug 11, 2025 5:35:42 AM PDT</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
+        <v>23.48</v>
       </c>
       <c r="G302" t="n">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="H302" t="n">
-        <v>7.68</v>
+        <v>35.96</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>B08ZJS5WGT</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TW-CRI-2008788</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>114-9497005-2373042</t>
+          <t>112-8636883-0842628</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 6:17:17 AM PDT</t>
+          <t>Aug 11, 2025 8:52:04 AM PDT</t>
         </is>
       </c>
       <c r="E303" t="n">
         <v>1</v>
       </c>
       <c r="F303" t="n">
-        <v>7.08</v>
+        <v>5.87</v>
       </c>
       <c r="G303" t="n">
-        <v>7.08</v>
+        <v>5.87</v>
       </c>
       <c r="H303" t="n">
-        <v>7.68</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>B08ZJS5WGT</t>
+          <t>B0DJYMQQJX</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TW-CRI-2008788</t>
+          <t>TW-CRI-2007228</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>113-7246251-4063441</t>
+          <t>114-1983785-2053827</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 2:39:20 AM PDT</t>
+          <t>Jul 28, 2025 8:14:20 PM PDT</t>
         </is>
       </c>
       <c r="E304" t="n">
         <v>1</v>
       </c>
       <c r="F304" t="n">
-        <v>7.08</v>
+        <v>8.24</v>
       </c>
       <c r="G304" t="n">
-        <v>7.08</v>
+        <v>8.24</v>
       </c>
       <c r="H304" t="n">
-        <v>7.68</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>B0DMRV12HR</t>
+          <t>B0DJYMQQJX</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TW-CRI-2010001-3pk</t>
+          <t>TW-CRI-2007228</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>113-0904756-0808209</t>
+          <t>114-1983785-2053827</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 11:28:49 PM PDT</t>
+          <t>Jul 28, 2025 8:14:20 PM PDT</t>
         </is>
       </c>
       <c r="E305" t="n">
         <v>1</v>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>8.24</v>
       </c>
       <c r="G305" t="n">
-        <v>0</v>
+        <v>8.24</v>
       </c>
       <c r="H305" t="n">
         <v>26.97</v>
@@ -10814,32 +10814,32 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>B0DMRV12HR</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TW-CRI-2010001-3pk</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>114-6487677-1447420</t>
+          <t>111-6627281-9015462</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 11:56:16 PM PDT</t>
+          <t>Jul 28, 2025 4:43:32 AM PDT</t>
         </is>
       </c>
       <c r="E306" t="n">
         <v>1</v>
       </c>
       <c r="F306" t="n">
-        <v>20.49</v>
+        <v>8.24</v>
       </c>
       <c r="G306" t="n">
-        <v>20.49</v>
+        <v>8.24</v>
       </c>
       <c r="H306" t="n">
         <v>26.97</v>
@@ -10848,124 +10848,124 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>B0DMRV12HR</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TW-CRI-2010001-3pk</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>113-5775713-0792269</t>
+          <t>112-7775809-7185011</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 3:20:00 PM PDT</t>
+          <t>Jul 28, 2025 6:34:51 AM PDT</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>16.48</v>
       </c>
       <c r="G307" t="n">
-        <v>0</v>
+        <v>8.24</v>
       </c>
       <c r="H307" t="n">
-        <v>26.97</v>
+        <v>53.94</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>B09YKYJM93</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TW-CRI-2009464</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>112-8929525-9091464</t>
+          <t>112-7775809-7185011</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 4:32:17 AM PDT</t>
+          <t>Jul 28, 2025 6:34:51 AM PDT</t>
         </is>
       </c>
       <c r="E308" t="n">
         <v>1</v>
       </c>
       <c r="F308" t="n">
-        <v>11.47</v>
+        <v>8.24</v>
       </c>
       <c r="G308" t="n">
-        <v>11.47</v>
+        <v>8.24</v>
       </c>
       <c r="H308" t="n">
-        <v>11.92</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>B0DJYKFZBF</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>112-2353292-3005869</t>
+          <t>113-3187908-2551463</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 11:53:28 PM PDT</t>
+          <t>Jul 28, 2025 7:23:20 AM PDT</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F309" t="n">
-        <v>8.24</v>
+        <v>16.48</v>
       </c>
       <c r="G309" t="n">
         <v>8.24</v>
       </c>
       <c r="H309" t="n">
-        <v>26.97</v>
+        <v>53.94</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>B0DJYKFZBF</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>114-2120231-6015431</t>
+          <t>112-9803505-5053859</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 10:34:36 AM PDT</t>
+          <t>Jul 28, 2025 12:13:33 PM PDT</t>
         </is>
       </c>
       <c r="E310" t="n">
@@ -10984,22 +10984,22 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>B0DJYKFZBF</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>112-7543483-2421847</t>
+          <t>114-5811287-7441860</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 1:48:26 AM PDT</t>
+          <t>Jul 28, 2025 11:44:35 PM PDT</t>
         </is>
       </c>
       <c r="E311" t="n">
@@ -11018,270 +11018,270 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>B01BG2JJLG</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TW-PN-P21701-TAN</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>114-4037423-0010614</t>
+          <t>112-6775197-5086625</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 3:18:55 AM PDT</t>
+          <t>Jul 29, 2025 12:01:08 AM PDT</t>
         </is>
       </c>
       <c r="E312" t="n">
         <v>1</v>
       </c>
       <c r="F312" t="n">
-        <v>140</v>
+        <v>8.24</v>
       </c>
       <c r="G312" t="n">
-        <v>140</v>
+        <v>8.24</v>
       </c>
       <c r="H312" t="n">
-        <v>149</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>B01BG2JJLG</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TW-PN-P21701-TAN</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>112-0355855-1402650</t>
+          <t>112-2023260-4421067</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 3:22:02 AM PDT</t>
+          <t>Jul 29, 2025 2:15:17 AM PDT</t>
         </is>
       </c>
       <c r="E313" t="n">
         <v>1</v>
       </c>
       <c r="F313" t="n">
-        <v>140</v>
+        <v>8.24</v>
       </c>
       <c r="G313" t="n">
-        <v>140</v>
+        <v>8.24</v>
       </c>
       <c r="H313" t="n">
-        <v>149</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>B0BDLDVB4J</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TW-CRI-2010002</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>114-2637416-4341010</t>
+          <t>111-3535453-3945029</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 4:07:09 AM PDT</t>
+          <t>Jul 29, 2025 4:20:43 AM PDT</t>
         </is>
       </c>
       <c r="E314" t="n">
         <v>1</v>
       </c>
       <c r="F314" t="n">
-        <v>7.8</v>
+        <v>8.24</v>
       </c>
       <c r="G314" t="n">
-        <v>7.8</v>
+        <v>8.24</v>
       </c>
       <c r="H314" t="n">
-        <v>8.99</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>B0BDLDVB4J</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TW-CRI-2010002</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>112-7530071-3101008</t>
+          <t>112-8276268-5536262</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 9:31:53 PM PDT</t>
+          <t>Jul 29, 2025 7:45:56 PM PDT</t>
         </is>
       </c>
       <c r="E315" t="n">
         <v>1</v>
       </c>
       <c r="F315" t="n">
-        <v>7.8</v>
+        <v>8.24</v>
       </c>
       <c r="G315" t="n">
-        <v>7.8</v>
+        <v>8.24</v>
       </c>
       <c r="H315" t="n">
-        <v>8.99</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>B0BRZ32RSG</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TW-2295AMZ-FBM</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>112-0328742-8689042</t>
+          <t>112-7086869-0177851</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 3:00:22 AM PDT</t>
+          <t>Aug 1, 2025 1:33:59 AM PDT</t>
         </is>
       </c>
       <c r="E316" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F316" t="n">
-        <v>1618.2</v>
+        <v>8.24</v>
       </c>
       <c r="G316" t="n">
-        <v>539.4</v>
+        <v>8.24</v>
       </c>
       <c r="H316" t="n">
-        <v>1740</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>B0BRZ32RSG</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>TW-2295AMZ-FBM</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>113-4374813-0060263</t>
+          <t>112-2142273-9776267</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 5:39:59 AM PDT</t>
+          <t>Aug 1, 2025 8:38:51 AM PDT</t>
         </is>
       </c>
       <c r="E317" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F317" t="n">
-        <v>1618.2</v>
+        <v>8.24</v>
       </c>
       <c r="G317" t="n">
-        <v>539.4</v>
+        <v>8.24</v>
       </c>
       <c r="H317" t="n">
-        <v>1740</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>B0BRZ32RSG</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TW-2295AMZ-FBM</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>113-4841232-5169035</t>
+          <t>114-8441857-9127462</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 2:22:35 AM PDT</t>
+          <t>Aug 6, 2025 3:08:05 AM PDT</t>
         </is>
       </c>
       <c r="E318" t="n">
         <v>1</v>
       </c>
       <c r="F318" t="n">
-        <v>551</v>
+        <v>8.24</v>
       </c>
       <c r="G318" t="n">
-        <v>551</v>
+        <v>8.24</v>
       </c>
       <c r="H318" t="n">
-        <v>580</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>B0DMSDMGM6</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TW-CRI-2010002-3pk</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>112-0607402-1349043</t>
+          <t>112-9503250-6549021</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 8:39:08 AM PDT</t>
+          <t>Aug 7, 2025 12:46:21 PM PDT</t>
         </is>
       </c>
       <c r="E319" t="n">
         <v>1</v>
       </c>
       <c r="F319" t="n">
-        <v>19.19</v>
+        <v>8.24</v>
       </c>
       <c r="G319" t="n">
-        <v>19.19</v>
+        <v>8.24</v>
       </c>
       <c r="H319" t="n">
         <v>26.97</v>
@@ -11290,158 +11290,158 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>B0BDLD82XG</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TW-CRI-2010001</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>114-4832844-6390613</t>
+          <t>113-0549835-5849043</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 3:18:41 AM PDT</t>
+          <t>Aug 8, 2025 12:02:17 AM PDT</t>
         </is>
       </c>
       <c r="E320" t="n">
         <v>1</v>
       </c>
       <c r="F320" t="n">
-        <v>7.8</v>
+        <v>8.24</v>
       </c>
       <c r="G320" t="n">
-        <v>7.8</v>
+        <v>8.24</v>
       </c>
       <c r="H320" t="n">
-        <v>8.99</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>B09GPSX3NX</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>TW-PN-P38001-BLCK</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>111-9015819-3281057</t>
+          <t>113-8615898-9685818</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 3:53:00 AM PDT</t>
+          <t>Aug 8, 2025 8:43:24 AM PDT</t>
         </is>
       </c>
       <c r="E321" t="n">
         <v>1</v>
       </c>
       <c r="F321" t="n">
-        <v>95</v>
+        <v>8.24</v>
       </c>
       <c r="G321" t="n">
-        <v>95</v>
+        <v>8.24</v>
       </c>
       <c r="H321" t="n">
-        <v>119</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>B09GPSX3NX</t>
+          <t>B0DJYKFZBF</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>TW-PN-P38001-BLCK</t>
+          <t>TW-CRI-2007227</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>112-2513474-9814658</t>
+          <t>112-2353292-3005869</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 6:52:22 AM PDT</t>
+          <t>Aug 3, 2025 11:53:28 PM PDT</t>
         </is>
       </c>
       <c r="E322" t="n">
         <v>1</v>
       </c>
       <c r="F322" t="n">
-        <v>95</v>
+        <v>8.24</v>
       </c>
       <c r="G322" t="n">
-        <v>95</v>
+        <v>8.24</v>
       </c>
       <c r="H322" t="n">
-        <v>119</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>B09GPSX3NX</t>
+          <t>B0DJYKFZBF</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>TW-PN-P38001-BLCK</t>
+          <t>TW-CRI-2007227</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>113-1692909-4565017</t>
+          <t>114-2120231-6015431</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 6:35:01 AM PDT</t>
+          <t>Aug 8, 2025 10:34:36 AM PDT</t>
         </is>
       </c>
       <c r="E323" t="n">
         <v>1</v>
       </c>
       <c r="F323" t="n">
-        <v>95</v>
+        <v>8.24</v>
       </c>
       <c r="G323" t="n">
-        <v>95</v>
+        <v>8.24</v>
       </c>
       <c r="H323" t="n">
-        <v>119</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B0DJYKFZBF</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007227</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>111-6627281-9015462</t>
+          <t>112-7543483-2421847</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 4:43:32 AM PDT</t>
+          <t>Aug 10, 2025 1:48:26 AM PDT</t>
         </is>
       </c>
       <c r="E324" t="n">
@@ -11460,192 +11460,192 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B08ZJS5WGT</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2008788</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>112-7775809-7185011</t>
+          <t>113-7315202-6419435</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 6:34:51 AM PDT</t>
+          <t>Jul 28, 2025 1:56:33 AM PDT</t>
         </is>
       </c>
       <c r="E325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F325" t="n">
-        <v>16.48</v>
+        <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>53.94</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B08ZJS5WGT</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2008788</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>112-7775809-7185011</t>
+          <t>114-9497005-2373042</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 6:34:51 AM PDT</t>
+          <t>Aug 9, 2025 6:17:17 AM PDT</t>
         </is>
       </c>
       <c r="E326" t="n">
         <v>1</v>
       </c>
       <c r="F326" t="n">
-        <v>8.24</v>
+        <v>7.08</v>
       </c>
       <c r="G326" t="n">
-        <v>8.24</v>
+        <v>7.08</v>
       </c>
       <c r="H326" t="n">
-        <v>26.97</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B08ZJS5WGT</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2008788</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>113-3187908-2551463</t>
+          <t>113-7246251-4063441</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 7:23:20 AM PDT</t>
+          <t>Aug 11, 2025 2:39:20 AM PDT</t>
         </is>
       </c>
       <c r="E327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F327" t="n">
-        <v>16.48</v>
+        <v>7.08</v>
       </c>
       <c r="G327" t="n">
-        <v>8.24</v>
+        <v>7.08</v>
       </c>
       <c r="H327" t="n">
-        <v>53.94</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B01BG2JJLG</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-PN-P21701-TAN</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>112-9803505-5053859</t>
+          <t>114-4037423-0010614</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 12:13:33 PM PDT</t>
+          <t>Aug 2, 2025 3:18:55 AM PDT</t>
         </is>
       </c>
       <c r="E328" t="n">
         <v>1</v>
       </c>
       <c r="F328" t="n">
-        <v>8.24</v>
+        <v>140</v>
       </c>
       <c r="G328" t="n">
-        <v>8.24</v>
+        <v>140</v>
       </c>
       <c r="H328" t="n">
-        <v>26.97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B01BG2JJLG</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-PN-P21701-TAN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>114-5811287-7441860</t>
+          <t>112-0355855-1402650</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 11:44:35 PM PDT</t>
+          <t>Aug 5, 2025 3:22:02 AM PDT</t>
         </is>
       </c>
       <c r="E329" t="n">
         <v>1</v>
       </c>
       <c r="F329" t="n">
-        <v>8.24</v>
+        <v>140</v>
       </c>
       <c r="G329" t="n">
-        <v>8.24</v>
+        <v>140</v>
       </c>
       <c r="H329" t="n">
-        <v>26.97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMSLRY</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007228-1pk</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>112-6775197-5086625</t>
+          <t>112-1701085-6397027</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 12:01:08 AM PDT</t>
+          <t>Jul 29, 2025 5:04:24 AM PDT</t>
         </is>
       </c>
       <c r="E330" t="n">
@@ -11658,28 +11658,28 @@
         <v>8.24</v>
       </c>
       <c r="H330" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMSLRY</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007228-1pk</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>112-2023260-4421067</t>
+          <t>113-6968059-2501830</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 2:15:17 AM PDT</t>
+          <t>Jul 31, 2025 6:56:20 AM PDT</t>
         </is>
       </c>
       <c r="E331" t="n">
@@ -11692,28 +11692,28 @@
         <v>8.24</v>
       </c>
       <c r="H331" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMSLRY</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007228-1pk</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>111-3535453-3945029</t>
+          <t>112-0703642-1907432</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 4:20:43 AM PDT</t>
+          <t>Jul 31, 2025 8:55:08 AM PDT</t>
         </is>
       </c>
       <c r="E332" t="n">
@@ -11726,28 +11726,28 @@
         <v>8.24</v>
       </c>
       <c r="H332" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMSLRY</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007228-1pk</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>112-8276268-5536262</t>
+          <t>111-0267855-2893835</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 7:45:56 PM PDT</t>
+          <t>Aug 1, 2025 11:34:28 AM PDT</t>
         </is>
       </c>
       <c r="E333" t="n">
@@ -11760,28 +11760,28 @@
         <v>8.24</v>
       </c>
       <c r="H333" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMSLRY</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007228-1pk</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>112-7086869-0177851</t>
+          <t>112-0865506-3613029</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 1:33:59 AM PDT</t>
+          <t>Aug 1, 2025 7:56:18 PM PDT</t>
         </is>
       </c>
       <c r="E334" t="n">
@@ -11794,28 +11794,28 @@
         <v>8.24</v>
       </c>
       <c r="H334" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMSLRY</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007228-1pk</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>112-2142273-9776267</t>
+          <t>112-6911502-4808211</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 8:38:51 AM PDT</t>
+          <t>Aug 9, 2025 10:25:55 PM PDT</t>
         </is>
       </c>
       <c r="E335" t="n">
@@ -11828,38 +11828,38 @@
         <v>8.24</v>
       </c>
       <c r="H335" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B0DMRV12HR</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2010001-3pk</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>114-8441857-9127462</t>
+          <t>113-0904756-0808209</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 3:08:05 AM PDT</t>
+          <t>Aug 8, 2025 11:28:49 PM PDT</t>
         </is>
       </c>
       <c r="E336" t="n">
         <v>1</v>
       </c>
       <c r="F336" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="H336" t="n">
         <v>26.97</v>
@@ -11868,32 +11868,32 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B0DMRV12HR</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2010001-3pk</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>112-9503250-6549021</t>
+          <t>114-6487677-1447420</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 12:46:21 PM PDT</t>
+          <t>Aug 8, 2025 11:56:16 PM PDT</t>
         </is>
       </c>
       <c r="E337" t="n">
         <v>1</v>
       </c>
       <c r="F337" t="n">
-        <v>8.24</v>
+        <v>20.49</v>
       </c>
       <c r="G337" t="n">
-        <v>8.24</v>
+        <v>20.49</v>
       </c>
       <c r="H337" t="n">
         <v>26.97</v>
@@ -11902,32 +11902,32 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B0DMRV12HR</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2010001-3pk</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>113-0549835-5849043</t>
+          <t>113-5775713-0792269</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 12:02:17 AM PDT</t>
+          <t>Aug 10, 2025 3:20:00 PM PDT</t>
         </is>
       </c>
       <c r="E338" t="n">
         <v>1</v>
       </c>
       <c r="F338" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="H338" t="n">
         <v>26.97</v>
@@ -11936,32 +11936,32 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B0DMSDMGM6</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2010002-3pk</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>113-8615898-9685818</t>
+          <t>112-0607402-1349043</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 8:43:24 AM PDT</t>
+          <t>Aug 10, 2025 8:39:08 AM PDT</t>
         </is>
       </c>
       <c r="E339" t="n">
         <v>1</v>
       </c>
       <c r="F339" t="n">
-        <v>8.24</v>
+        <v>19.19</v>
       </c>
       <c r="G339" t="n">
-        <v>8.24</v>
+        <v>19.19</v>
       </c>
       <c r="H339" t="n">
         <v>26.97</v>
@@ -11970,409 +11970,715 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>B00KWK1T80</t>
+          <t>B0BDLD82XG</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TW-PN-P34519-FLRNC</t>
+          <t>TW-CRI-2010001</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>112-3508624-0736225</t>
+          <t>114-4832844-6390613</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 8:15:21 AM PDT</t>
+          <t>Aug 11, 2025 3:18:41 AM PDT</t>
         </is>
       </c>
       <c r="E340" t="n">
         <v>1</v>
       </c>
       <c r="F340" t="n">
-        <v>280</v>
+        <v>7.8</v>
       </c>
       <c r="G340" t="n">
-        <v>280</v>
+        <v>7.8</v>
       </c>
       <c r="H340" t="n">
-        <v>299</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>B01HIQ9NGU</t>
+          <t>B01GXOR05Y</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TW-V1-510098</t>
+          <t>TW-PN-P06201-BLCK</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>113-2683791-0066664</t>
+          <t>111-8583099-0277049</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 7:00:43 PM PDT</t>
+          <t>Jul 30, 2025 12:16:35 AM PDT</t>
         </is>
       </c>
       <c r="E341" t="n">
         <v>1</v>
       </c>
       <c r="F341" t="n">
-        <v>24.99</v>
+        <v>147</v>
       </c>
       <c r="G341" t="n">
-        <v>24.99</v>
+        <v>147</v>
       </c>
       <c r="H341" t="n">
-        <v>26.45</v>
+        <v>189</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>B084LMSLRY</t>
+          <t>B09GPSX3NX</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228-1pk</t>
+          <t>TW-PN-P38001-BLCK</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>112-1701085-6397027</t>
+          <t>111-9015819-3281057</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 5:04:24 AM PDT</t>
+          <t>Jul 28, 2025 3:53:00 AM PDT</t>
         </is>
       </c>
       <c r="E342" t="n">
         <v>1</v>
       </c>
       <c r="F342" t="n">
-        <v>8.24</v>
+        <v>95</v>
       </c>
       <c r="G342" t="n">
-        <v>8.24</v>
+        <v>95</v>
       </c>
       <c r="H342" t="n">
-        <v>8.99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>B084LMSLRY</t>
+          <t>B09GPSX3NX</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228-1pk</t>
+          <t>TW-PN-P38001-BLCK</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>113-6968059-2501830</t>
+          <t>112-2513474-9814658</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 6:56:20 AM PDT</t>
+          <t>Jul 28, 2025 6:52:22 AM PDT</t>
         </is>
       </c>
       <c r="E343" t="n">
         <v>1</v>
       </c>
       <c r="F343" t="n">
-        <v>8.24</v>
+        <v>95</v>
       </c>
       <c r="G343" t="n">
-        <v>8.24</v>
+        <v>95</v>
       </c>
       <c r="H343" t="n">
-        <v>8.99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>B084LMSLRY</t>
+          <t>B09GPSX3NX</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228-1pk</t>
+          <t>TW-PN-P38001-BLCK</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>112-0703642-1907432</t>
+          <t>113-1692909-4565017</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 8:55:08 AM PDT</t>
+          <t>Aug 8, 2025 6:35:01 AM PDT</t>
         </is>
       </c>
       <c r="E344" t="n">
         <v>1</v>
       </c>
       <c r="F344" t="n">
-        <v>8.24</v>
+        <v>95</v>
       </c>
       <c r="G344" t="n">
-        <v>8.24</v>
+        <v>95</v>
       </c>
       <c r="H344" t="n">
-        <v>8.99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>B084LMSLRY</t>
+          <t>B07QSWJM4V</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228-1pk</t>
+          <t>TW-TPB-B12BK4PK</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>111-0267855-2893835</t>
+          <t>111-7078538-0597031</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 11:34:28 AM PDT</t>
+          <t>Aug 5, 2025 5:39:50 AM PDT</t>
         </is>
       </c>
       <c r="E345" t="n">
         <v>1</v>
       </c>
       <c r="F345" t="n">
-        <v>8.24</v>
+        <v>22.99</v>
       </c>
       <c r="G345" t="n">
-        <v>8.24</v>
+        <v>22.99</v>
       </c>
       <c r="H345" t="n">
-        <v>8.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>B084LMSLRY</t>
+          <t>B0BRZ32RSG</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228-1pk</t>
+          <t>TW-2295AMZ-FBM</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>112-0865506-3613029</t>
+          <t>112-0328742-8689042</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 7:56:18 PM PDT</t>
+          <t>Jul 28, 2025 3:00:22 AM PDT</t>
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F346" t="n">
-        <v>8.24</v>
+        <v>1618.2</v>
       </c>
       <c r="G346" t="n">
-        <v>8.24</v>
+        <v>539.4</v>
       </c>
       <c r="H346" t="n">
-        <v>8.99</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>B084LMSLRY</t>
+          <t>B0BRZ32RSG</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228-1pk</t>
+          <t>TW-2295AMZ-FBM</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>112-6911502-4808211</t>
+          <t>113-4374813-0060263</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 10:25:55 PM PDT</t>
+          <t>Jul 28, 2025 5:39:59 AM PDT</t>
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F347" t="n">
-        <v>8.24</v>
+        <v>1618.2</v>
       </c>
       <c r="G347" t="n">
-        <v>8.24</v>
+        <v>539.4</v>
       </c>
       <c r="H347" t="n">
-        <v>8.99</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>B0BRBT7XVT</t>
+          <t>B0BRZ32RSG</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TW-00202H00AMZ</t>
+          <t>TW-2295AMZ-FBM</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>111-6548336-2590664</t>
+          <t>113-4841232-5169035</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 5:05:48 AM PDT</t>
+          <t>Aug 1, 2025 2:22:35 AM PDT</t>
         </is>
       </c>
       <c r="E348" t="n">
         <v>1</v>
       </c>
       <c r="F348" t="n">
-        <v>195</v>
+        <v>551</v>
       </c>
       <c r="G348" t="n">
-        <v>195</v>
+        <v>551</v>
       </c>
       <c r="H348" t="n">
-        <v>235</v>
+        <v>580</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>B0BRBT7XVT</t>
+          <t>B00KWK1T80</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>TW-00202H00AMZ</t>
+          <t>TW-PN-P34519-FLRNC</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>111-6548336-2590664</t>
+          <t>112-3508624-0736225</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 6:33:06 AM PDT</t>
+          <t>Jul 29, 2025 8:15:21 AM PDT</t>
         </is>
       </c>
       <c r="E349" t="n">
         <v>1</v>
       </c>
       <c r="F349" t="n">
-        <v>195</v>
+        <v>280</v>
       </c>
       <c r="G349" t="n">
-        <v>195</v>
+        <v>280</v>
       </c>
       <c r="H349" t="n">
-        <v>235</v>
+        <v>299</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>B0DJYMQQJX</t>
+          <t>B01HIQ9NGU</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228</t>
+          <t>TW-V1-510098</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>114-1983785-2053827</t>
+          <t>113-2683791-0066664</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 8:14:20 PM PDT</t>
+          <t>Aug 3, 2025 7:00:43 PM PDT</t>
         </is>
       </c>
       <c r="E350" t="n">
         <v>1</v>
       </c>
       <c r="F350" t="n">
-        <v>8.24</v>
+        <v>24.99</v>
       </c>
       <c r="G350" t="n">
-        <v>8.24</v>
+        <v>24.99</v>
       </c>
       <c r="H350" t="n">
-        <v>26.97</v>
+        <v>26.45</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>B0DJYMQQJX</t>
+          <t>B00L9IJL8E</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228</t>
+          <t>TW-PN-P06201</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>114-1983785-2053827</t>
+          <t>112-6603778-6296268</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 8:14:20 PM PDT</t>
+          <t>Aug 1, 2025 6:31:51 AM PDT</t>
         </is>
       </c>
       <c r="E351" t="n">
         <v>1</v>
       </c>
       <c r="F351" t="n">
-        <v>8.24</v>
+        <v>147</v>
       </c>
       <c r="G351" t="n">
-        <v>8.24</v>
+        <v>147</v>
       </c>
       <c r="H351" t="n">
-        <v>26.97</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>B00L9IJL8E</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>TW-PN-P06201</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>113-3875814-1103423</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Aug 1, 2025 7:39:29 AM PDT</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>1</v>
+      </c>
+      <c r="F352" t="n">
+        <v>147</v>
+      </c>
+      <c r="G352" t="n">
+        <v>147</v>
+      </c>
+      <c r="H352" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>B00L9IJL8E</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>TW-PN-P06201</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>113-2530624-3108211</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Aug 2, 2025 4:45:25 AM PDT</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>1</v>
+      </c>
+      <c r="F353" t="n">
+        <v>147</v>
+      </c>
+      <c r="G353" t="n">
+        <v>147</v>
+      </c>
+      <c r="H353" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>B00L9IJL8E</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>TW-PN-P06201</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>111-1309750-3940245</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Aug 5, 2025 3:37:16 AM PDT</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>1</v>
+      </c>
+      <c r="F354" t="n">
+        <v>147</v>
+      </c>
+      <c r="G354" t="n">
+        <v>147</v>
+      </c>
+      <c r="H354" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>B0BDLDVB4J</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>TW-CRI-2010002</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>114-2637416-4341010</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Aug 11, 2025 4:07:09 AM PDT</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>1</v>
+      </c>
+      <c r="F355" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G355" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H355" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>B0BDLDVB4J</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>TW-CRI-2010002</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>112-7530071-3101008</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Aug 11, 2025 9:31:53 PM PDT</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>1</v>
+      </c>
+      <c r="F356" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G356" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H356" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>B0D69135B6</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>TW-LIT-410C12AMZ</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>112-3404335-7257812</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Jul 30, 2025 6:10:27 AM PDT</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>1</v>
+      </c>
+      <c r="F357" t="n">
+        <v>266</v>
+      </c>
+      <c r="G357" t="n">
+        <v>266</v>
+      </c>
+      <c r="H357" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>B0D69135B6</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>TW-LIT-410C12AMZ</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>112-7418891-8977805</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Jul 31, 2025 3:01:06 AM PDT</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>1</v>
+      </c>
+      <c r="F358" t="n">
+        <v>266</v>
+      </c>
+      <c r="G358" t="n">
+        <v>266</v>
+      </c>
+      <c r="H358" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>B0BRBT7XVT</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>TW-00202H00AMZ</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>111-6548336-2590664</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Aug 9, 2025 5:05:48 AM PDT</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>1</v>
+      </c>
+      <c r="F359" t="n">
+        <v>195</v>
+      </c>
+      <c r="G359" t="n">
+        <v>195</v>
+      </c>
+      <c r="H359" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>B0BRBT7XVT</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>TW-00202H00AMZ</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>111-6548336-2590664</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Aug 9, 2025 6:33:06 AM PDT</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>1</v>
+      </c>
+      <c r="F360" t="n">
+        <v>195</v>
+      </c>
+      <c r="G360" t="n">
+        <v>195</v>
+      </c>
+      <c r="H360" t="n">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/underperforming_ats_report_ten_west.xlsx
+++ b/underperforming_ats_report_ten_west.xlsx
@@ -478,375 +478,375 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B01LY3JI7T</t>
+          <t>B007MPJ8YU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TW-VRX-23101e</t>
+          <t>TW-26002-NAK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>114-7251419-9598648</t>
+          <t>113-6051038-3238658</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 12:20:39 AM PDT</t>
+          <t>Jul 28, 2025 2:56:35 PM PDT</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>15.99</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B01LY3JI7T</t>
+          <t>B00KWK1T80</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TW-VRX-23101e</t>
+          <t>TW-PN-P34519-FLRNC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>113-8196829-0215417</t>
+          <t>112-3508624-0736225</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 2:19:25 AM PDT</t>
+          <t>Jul 29, 2025 8:15:21 AM PDT</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>15.8</v>
+        <v>280</v>
       </c>
       <c r="G3" t="n">
-        <v>15.8</v>
+        <v>280</v>
       </c>
       <c r="H3" t="n">
-        <v>15.99</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B01LY3JI7T</t>
+          <t>B00L9IJL8E</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TW-VRX-23101e</t>
+          <t>TW-PN-P06201</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111-5140890-4627469</t>
+          <t>112-6603778-6296268</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 2:56:21 AM PDT</t>
+          <t>Aug 1, 2025 6:31:51 AM PDT</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>15.8</v>
+        <v>147</v>
       </c>
       <c r="G4" t="n">
-        <v>15.8</v>
+        <v>147</v>
       </c>
       <c r="H4" t="n">
-        <v>15.99</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B01LY3JI7T</t>
+          <t>B00L9IJL8E</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TW-VRX-23101e</t>
+          <t>TW-PN-P06201</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111-4895662-8748241</t>
+          <t>113-3875814-1103423</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 3:24:27 AM PDT</t>
+          <t>Aug 1, 2025 7:39:29 AM PDT</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>15.8</v>
+        <v>147</v>
       </c>
       <c r="G5" t="n">
-        <v>15.8</v>
+        <v>147</v>
       </c>
       <c r="H5" t="n">
-        <v>15.99</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B01LY3JI7T</t>
+          <t>B00L9IJL8E</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TW-VRX-23101e</t>
+          <t>TW-PN-P06201</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111-1225951-6922624</t>
+          <t>113-2530624-3108211</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 3:34:48 AM PDT</t>
+          <t>Aug 2, 2025 4:45:25 AM PDT</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>15.8</v>
+        <v>147</v>
       </c>
       <c r="G6" t="n">
-        <v>15.8</v>
+        <v>147</v>
       </c>
       <c r="H6" t="n">
-        <v>15.99</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B01LY3JI7T</t>
+          <t>B00L9IJL8E</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TW-VRX-23101e</t>
+          <t>TW-PN-P06201</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>113-9025505-3140204</t>
+          <t>111-1309750-3940245</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 4:31:34 AM PDT</t>
+          <t>Aug 5, 2025 3:37:16 AM PDT</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>15.89</v>
+        <v>147</v>
       </c>
       <c r="G7" t="n">
-        <v>15.89</v>
+        <v>147</v>
       </c>
       <c r="H7" t="n">
-        <v>15.99</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B01LY3JI7T</t>
+          <t>B01BG2JJLG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TW-VRX-23101e</t>
+          <t>TW-PN-P21701-TAN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>112-9592561-8831462</t>
+          <t>114-4037423-0010614</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 4:54:36 AM PDT</t>
+          <t>Aug 2, 2025 3:18:55 AM PDT</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>15.8</v>
+        <v>140</v>
       </c>
       <c r="G8" t="n">
-        <v>15.8</v>
+        <v>140</v>
       </c>
       <c r="H8" t="n">
-        <v>15.99</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B01LY3JI7T</t>
+          <t>B01BG2JJLG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TW-VRX-23101e</t>
+          <t>TW-PN-P21701-TAN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111-6823525-3379402</t>
+          <t>112-0355855-1402650</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 5:19:07 AM PDT</t>
+          <t>Aug 5, 2025 3:22:02 AM PDT</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>15.8</v>
+        <v>140</v>
       </c>
       <c r="G9" t="n">
-        <v>15.8</v>
+        <v>140</v>
       </c>
       <c r="H9" t="n">
-        <v>15.99</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B01LY3JI7T</t>
+          <t>B01D321B4A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TW-VRX-23101e</t>
+          <t>TW-28010-A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111-6717121-5319412</t>
+          <t>113-5614624-3298654</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 5:23:08 AM PDT</t>
+          <t>Aug 4, 2025 10:31:10 PM PDT</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>15.99</v>
+        <v>70.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B01LY3JI7T</t>
+          <t>B01GXOR05Y</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TW-VRX-23101e</t>
+          <t>TW-PN-P06201-BLCK</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>112-6762238-8773063</t>
+          <t>111-8583099-0277049</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 5:44:42 AM PDT</t>
+          <t>Jul 30, 2025 12:16:35 AM PDT</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>15.8</v>
+        <v>147</v>
       </c>
       <c r="G11" t="n">
-        <v>15.8</v>
+        <v>147</v>
       </c>
       <c r="H11" t="n">
-        <v>15.99</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B01LY3JI7T</t>
+          <t>B01HIQ9NGU</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TW-VRX-23101e</t>
+          <t>TW-V1-510098</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>113-5688339-9494624</t>
+          <t>113-2683791-0066664</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 5:55:40 AM PDT</t>
+          <t>Aug 3, 2025 7:00:43 PM PDT</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>15.8</v>
+        <v>24.99</v>
       </c>
       <c r="G12" t="n">
-        <v>15.8</v>
+        <v>24.99</v>
       </c>
       <c r="H12" t="n">
-        <v>15.99</v>
+        <v>26.45</v>
       </c>
     </row>
     <row r="13">
@@ -862,12 +862,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>111-2848753-5967426</t>
+          <t>114-7251419-9598648</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 6:21:47 AM PDT</t>
+          <t>Jul 28, 2025 12:20:39 AM PDT</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -896,22 +896,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>114-6053168-0302632</t>
+          <t>113-8196829-0215417</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 6:52:15 AM PDT</t>
+          <t>Jul 28, 2025 2:19:25 AM PDT</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="G14" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="H14" t="n">
         <v>15.99</v>
@@ -930,12 +930,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>112-3152697-1757850</t>
+          <t>111-5140890-4627469</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 7:27:52 AM PDT</t>
+          <t>Jul 28, 2025 2:56:21 AM PDT</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>112-2741992-1305848</t>
+          <t>111-4895662-8748241</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 8:42:44 AM PDT</t>
+          <t>Jul 28, 2025 3:24:27 AM PDT</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -998,12 +998,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>113-2334540-9223407</t>
+          <t>111-1225951-6922624</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 11:52:09 AM PDT</t>
+          <t>Jul 28, 2025 3:34:48 AM PDT</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>114-8959912-9330616</t>
+          <t>113-9025505-3140204</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 12:38:27 PM PDT</t>
+          <t>Jul 28, 2025 4:31:34 AM PDT</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G18" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H18" t="n">
         <v>15.99</v>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>113-5970679-8721033</t>
+          <t>112-9592561-8831462</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 9:00:39 PM PDT</t>
+          <t>Jul 28, 2025 4:54:36 AM PDT</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>111-9607806-8680208</t>
+          <t>111-6823525-3379402</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 10:33:49 PM PDT</t>
+          <t>Jul 28, 2025 5:19:07 AM PDT</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1134,12 +1134,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>111-0672012-1134655</t>
+          <t>111-6717121-5319412</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 11:27:17 PM PDT</t>
+          <t>Jul 28, 2025 5:23:08 AM PDT</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>112-5564167-1574640</t>
+          <t>112-6762238-8773063</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 11:52:40 PM PDT</t>
+          <t>Jul 28, 2025 5:44:42 AM PDT</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>113-8270187-8097807</t>
+          <t>113-5688339-9494624</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 1:58:09 AM PDT</t>
+          <t>Jul 28, 2025 5:55:40 AM PDT</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>114-7425336-0145861</t>
+          <t>111-2848753-5967426</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 2:24:40 AM PDT</t>
+          <t>Jul 28, 2025 6:21:47 AM PDT</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1270,22 +1270,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>112-2202012-9909052</t>
+          <t>114-6053168-0302632</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 3:00:59 AM PDT</t>
+          <t>Jul 28, 2025 6:52:15 AM PDT</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="G25" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="H25" t="n">
         <v>15.99</v>
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>111-3138890-2462624</t>
+          <t>112-3152697-1757850</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 3:28:33 AM PDT</t>
+          <t>Jul 28, 2025 7:27:52 AM PDT</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1338,12 +1338,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>112-7903740-1027417</t>
+          <t>112-2741992-1305848</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 3:37:07 AM PDT</t>
+          <t>Jul 28, 2025 8:42:44 AM PDT</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>112-0147434-2400201</t>
+          <t>113-2334540-9223407</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 5:34:44 AM PDT</t>
+          <t>Jul 28, 2025 11:52:09 AM PDT</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>111-5453053-4753058</t>
+          <t>114-8959912-9330616</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 5:39:08 AM PDT</t>
+          <t>Jul 28, 2025 12:38:27 PM PDT</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1440,22 +1440,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>114-8727980-3059434</t>
+          <t>113-5970679-8721033</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 6:14:53 AM PDT</t>
+          <t>Jul 28, 2025 9:00:39 PM PDT</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G30" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H30" t="n">
         <v>15.99</v>
@@ -1474,12 +1474,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>111-1873486-0158666</t>
+          <t>111-9607806-8680208</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 6:42:23 AM PDT</t>
+          <t>Jul 28, 2025 10:33:49 PM PDT</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1508,22 +1508,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>113-6080099-7886624</t>
+          <t>111-0672012-1134655</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 6:50:07 AM PDT</t>
+          <t>Jul 28, 2025 11:27:17 PM PDT</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G32" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H32" t="n">
         <v>15.99</v>
@@ -1542,25 +1542,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>114-3745877-4811412</t>
+          <t>112-5564167-1574640</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 7:02:52 AM PDT</t>
+          <t>Jul 28, 2025 11:52:40 PM PDT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>31.6</v>
+        <v>15.8</v>
       </c>
       <c r="G33" t="n">
         <v>15.8</v>
       </c>
       <c r="H33" t="n">
-        <v>31.98</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="34">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>112-0819313-9304259</t>
+          <t>113-8270187-8097807</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 7:08:04 AM PDT</t>
+          <t>Jul 29, 2025 1:58:09 AM PDT</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1610,12 +1610,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>114-4981780-0907461</t>
+          <t>114-7425336-0145861</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 7:56:15 AM PDT</t>
+          <t>Jul 29, 2025 2:24:40 AM PDT</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>114-6531051-6318603</t>
+          <t>112-2202012-9909052</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 9:07:50 AM PDT</t>
+          <t>Jul 29, 2025 3:00:59 AM PDT</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>112-2814079-2901027</t>
+          <t>111-3138890-2462624</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 12:57:43 PM PDT</t>
+          <t>Jul 29, 2025 3:28:33 AM PDT</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>113-3355142-4692229</t>
+          <t>112-7903740-1027417</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 11:38:42 PM PDT</t>
+          <t>Jul 29, 2025 3:37:07 AM PDT</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G38" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H38" t="n">
         <v>15.99</v>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>111-0767175-4635419</t>
+          <t>112-0147434-2400201</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 11:43:20 PM PDT</t>
+          <t>Jul 29, 2025 5:34:44 AM PDT</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1780,22 +1780,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>111-7794499-7958666</t>
+          <t>111-5453053-4753058</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 11:43:46 PM PDT</t>
+          <t>Jul 29, 2025 5:39:08 AM PDT</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G40" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H40" t="n">
         <v>15.99</v>
@@ -1814,22 +1814,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>113-3863529-0485027</t>
+          <t>114-8727980-3059434</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 11:54:59 PM PDT</t>
+          <t>Jul 29, 2025 6:14:53 AM PDT</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G41" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H41" t="n">
         <v>15.99</v>
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>113-3414740-9977855</t>
+          <t>111-1873486-0158666</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 12:37:27 AM PDT</t>
+          <t>Jul 29, 2025 6:42:23 AM PDT</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1882,22 +1882,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>112-9022398-4339443</t>
+          <t>113-6080099-7886624</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 1:05:31 AM PDT</t>
+          <t>Jul 29, 2025 6:50:07 AM PDT</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G43" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H43" t="n">
         <v>15.99</v>
@@ -1916,25 +1916,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>112-7826096-9053053</t>
+          <t>114-3745877-4811412</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 2:26:38 AM PDT</t>
+          <t>Jul 29, 2025 7:02:52 AM PDT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>15.8</v>
+        <v>31.6</v>
       </c>
       <c r="G44" t="n">
         <v>15.8</v>
       </c>
       <c r="H44" t="n">
-        <v>15.99</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="45">
@@ -1950,12 +1950,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>111-3812396-7274626</t>
+          <t>112-0819313-9304259</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 2:28:47 AM PDT</t>
+          <t>Jul 29, 2025 7:08:04 AM PDT</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1984,22 +1984,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>111-0081348-6061069</t>
+          <t>114-4981780-0907461</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 2:59:51 AM PDT</t>
+          <t>Jul 29, 2025 7:56:15 AM PDT</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>15.56</v>
+        <v>15.8</v>
       </c>
       <c r="G46" t="n">
-        <v>15.56</v>
+        <v>15.8</v>
       </c>
       <c r="H46" t="n">
         <v>15.99</v>
@@ -2018,22 +2018,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>111-0081348-6061069</t>
+          <t>114-6531051-6318603</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 2:59:51 AM PDT</t>
+          <t>Jul 29, 2025 9:07:50 AM PDT</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>15.56</v>
+        <v>15.8</v>
       </c>
       <c r="G47" t="n">
-        <v>15.56</v>
+        <v>15.8</v>
       </c>
       <c r="H47" t="n">
         <v>15.99</v>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>114-7292521-5166616</t>
+          <t>112-2814079-2901027</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 4:18:38 AM PDT</t>
+          <t>Jul 29, 2025 12:57:43 PM PDT</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2086,22 +2086,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>111-9444555-1005858</t>
+          <t>113-3355142-4692229</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 4:24:41 AM PDT</t>
+          <t>Jul 29, 2025 11:38:42 PM PDT</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>15.96</v>
+        <v>15.89</v>
       </c>
       <c r="G49" t="n">
-        <v>15.96</v>
+        <v>15.89</v>
       </c>
       <c r="H49" t="n">
         <v>15.99</v>
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>111-7766652-7869846</t>
+          <t>111-0767175-4635419</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 4:31:35 AM PDT</t>
+          <t>Jul 29, 2025 11:43:20 PM PDT</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2154,12 +2154,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>112-2516130-4804242</t>
+          <t>111-7794499-7958666</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 4:43:54 AM PDT</t>
+          <t>Jul 29, 2025 11:43:46 PM PDT</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>112-1318755-8121068</t>
+          <t>113-3863529-0485027</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 5:37:11 AM PDT</t>
+          <t>Jul 29, 2025 11:54:59 PM PDT</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>112-8761082-6457019</t>
+          <t>113-3414740-9977855</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 5:50:19 AM PDT</t>
+          <t>Jul 30, 2025 12:37:27 AM PDT</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2256,22 +2256,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>113-2202999-3417062</t>
+          <t>112-9022398-4339443</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 6:30:38 AM PDT</t>
+          <t>Jul 30, 2025 1:05:31 AM PDT</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>15.96</v>
+        <v>15.8</v>
       </c>
       <c r="G54" t="n">
-        <v>15.96</v>
+        <v>15.8</v>
       </c>
       <c r="H54" t="n">
         <v>15.99</v>
@@ -2290,12 +2290,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>112-8276551-6582639</t>
+          <t>112-7826096-9053053</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 7:07:48 AM PDT</t>
+          <t>Jul 30, 2025 2:26:38 AM PDT</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>114-7089727-7804241</t>
+          <t>111-3812396-7274626</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 7:20:25 AM PDT</t>
+          <t>Jul 30, 2025 2:28:47 AM PDT</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2358,22 +2358,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>114-5475590-3951430</t>
+          <t>111-0081348-6061069</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 7:34:56 AM PDT</t>
+          <t>Jul 30, 2025 2:59:51 AM PDT</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>15.8</v>
+        <v>15.56</v>
       </c>
       <c r="G57" t="n">
-        <v>15.8</v>
+        <v>15.56</v>
       </c>
       <c r="H57" t="n">
         <v>15.99</v>
@@ -2392,25 +2392,25 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>112-7707503-0833036</t>
+          <t>111-0081348-6061069</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 7:57:57 AM PDT</t>
+          <t>Jul 30, 2025 2:59:51 AM PDT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>31.86</v>
+        <v>15.56</v>
       </c>
       <c r="G58" t="n">
-        <v>15.93</v>
+        <v>15.56</v>
       </c>
       <c r="H58" t="n">
-        <v>31.98</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="59">
@@ -2426,22 +2426,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>114-6379580-7666601</t>
+          <t>114-7292521-5166616</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 8:11:08 AM PDT</t>
+          <t>Jul 30, 2025 4:18:38 AM PDT</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G59" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H59" t="n">
         <v>15.99</v>
@@ -2460,22 +2460,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>111-0169235-9669840</t>
+          <t>111-9444555-1005858</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 8:35:06 AM PDT</t>
+          <t>Jul 30, 2025 4:24:41 AM PDT</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>15.89</v>
+        <v>15.96</v>
       </c>
       <c r="G60" t="n">
-        <v>15.89</v>
+        <v>15.96</v>
       </c>
       <c r="H60" t="n">
         <v>15.99</v>
@@ -2494,12 +2494,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>113-2819955-7602613</t>
+          <t>111-7766652-7869846</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 1:59:58 PM PDT</t>
+          <t>Jul 30, 2025 4:31:35 AM PDT</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2528,22 +2528,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>114-5094997-5517865</t>
+          <t>112-2516130-4804242</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 7:39:30 PM PDT</t>
+          <t>Jul 30, 2025 4:43:54 AM PDT</t>
         </is>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G62" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H62" t="n">
         <v>15.99</v>
@@ -2562,22 +2562,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>111-0144520-7405008</t>
+          <t>112-1318755-8121068</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 9:57:44 PM PDT</t>
+          <t>Jul 30, 2025 5:37:11 AM PDT</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G63" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H63" t="n">
         <v>15.99</v>
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>114-2742170-9627461</t>
+          <t>112-8761082-6457019</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 11:53:18 PM PDT</t>
+          <t>Jul 30, 2025 5:50:19 AM PDT</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2630,22 +2630,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>114-5051658-2339407</t>
+          <t>113-2202999-3417062</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 1:23:57 AM PDT</t>
+          <t>Jul 30, 2025 6:30:38 AM PDT</t>
         </is>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>15.8</v>
+        <v>15.96</v>
       </c>
       <c r="G65" t="n">
-        <v>15.8</v>
+        <v>15.96</v>
       </c>
       <c r="H65" t="n">
         <v>15.99</v>
@@ -2664,22 +2664,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>114-0113012-5764263</t>
+          <t>112-8276551-6582639</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 2:34:47 AM PDT</t>
+          <t>Jul 30, 2025 7:07:48 AM PDT</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G66" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H66" t="n">
         <v>15.99</v>
@@ -2698,12 +2698,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>111-3034387-3694609</t>
+          <t>114-7089727-7804241</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 2:42:11 AM PDT</t>
+          <t>Jul 30, 2025 7:20:25 AM PDT</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2732,22 +2732,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>112-9710568-9149062</t>
+          <t>114-5475590-3951430</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 2:56:36 AM PDT</t>
+          <t>Jul 30, 2025 7:34:56 AM PDT</t>
         </is>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="G68" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="H68" t="n">
         <v>15.99</v>
@@ -2766,25 +2766,25 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>112-9710568-9149062</t>
+          <t>112-7707503-0833036</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 2:56:36 AM PDT</t>
+          <t>Jul 30, 2025 7:57:57 AM PDT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>15.8</v>
+        <v>31.86</v>
       </c>
       <c r="G69" t="n">
-        <v>15.8</v>
+        <v>15.93</v>
       </c>
       <c r="H69" t="n">
-        <v>15.99</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="70">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>111-1897943-1295419</t>
+          <t>114-6379580-7666601</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 3:05:14 AM PDT</t>
+          <t>Jul 30, 2025 8:11:08 AM PDT</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2834,22 +2834,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>112-2872721-4986633</t>
+          <t>111-0169235-9669840</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 4:30:52 AM PDT</t>
+          <t>Jul 30, 2025 8:35:06 AM PDT</t>
         </is>
       </c>
       <c r="E71" t="n">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G71" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H71" t="n">
         <v>15.99</v>
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>111-5771554-5234665</t>
+          <t>113-2819955-7602613</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 5:18:31 AM PDT</t>
+          <t>Jul 30, 2025 1:59:58 PM PDT</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2902,22 +2902,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>112-3281634-1708217</t>
+          <t>114-5094997-5517865</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 8:39:30 AM PDT</t>
+          <t>Jul 30, 2025 7:39:30 PM PDT</t>
         </is>
       </c>
       <c r="E73" t="n">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="G73" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="H73" t="n">
         <v>15.99</v>
@@ -2936,22 +2936,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>112-8851478-1713031</t>
+          <t>111-0144520-7405008</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 4:12:43 PM PDT</t>
+          <t>Jul 30, 2025 9:57:44 PM PDT</t>
         </is>
       </c>
       <c r="E74" t="n">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G74" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H74" t="n">
         <v>15.99</v>
@@ -2970,12 +2970,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>113-6367099-5603427</t>
+          <t>114-2742170-9627461</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 4:38:01 PM PDT</t>
+          <t>Jul 30, 2025 11:53:18 PM PDT</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>111-1170110-1277857</t>
+          <t>114-5051658-2339407</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 5:47:24 PM PDT</t>
+          <t>Jul 31, 2025 1:23:57 AM PDT</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3038,22 +3038,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>114-4409370-1986619</t>
+          <t>114-0113012-5764263</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 8:49:20 PM PDT</t>
+          <t>Jul 31, 2025 2:34:47 AM PDT</t>
         </is>
       </c>
       <c r="E77" t="n">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G77" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H77" t="n">
         <v>15.99</v>
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>112-4973581-0033838</t>
+          <t>111-3034387-3694609</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 8:58:28 PM PDT</t>
+          <t>Jul 31, 2025 2:42:11 AM PDT</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3106,22 +3106,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>114-3173903-7593017</t>
+          <t>112-9710568-9149062</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 12:56:18 AM PDT</t>
+          <t>Jul 31, 2025 2:56:36 AM PDT</t>
         </is>
       </c>
       <c r="E79" t="n">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="G79" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="H79" t="n">
         <v>15.99</v>
@@ -3140,22 +3140,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>112-4510341-2196246</t>
+          <t>112-9710568-9149062</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 1:16:53 AM PDT</t>
+          <t>Jul 31, 2025 2:56:36 AM PDT</t>
         </is>
       </c>
       <c r="E80" t="n">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G80" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H80" t="n">
         <v>15.99</v>
@@ -3174,12 +3174,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>113-0120805-5259412</t>
+          <t>111-1897943-1295419</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 1:36:54 AM PDT</t>
+          <t>Jul 31, 2025 3:05:14 AM PDT</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>113-1269329-9542608</t>
+          <t>112-2872721-4986633</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 2:25:08 AM PDT</t>
+          <t>Jul 31, 2025 4:30:52 AM PDT</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3242,12 +3242,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>111-8948011-1351403</t>
+          <t>111-5771554-5234665</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 2:55:29 AM PDT</t>
+          <t>Jul 31, 2025 5:18:31 AM PDT</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3276,22 +3276,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>114-4603511-3173056</t>
+          <t>112-3281634-1708217</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 2:57:58 AM PDT</t>
+          <t>Jul 31, 2025 8:39:30 AM PDT</t>
         </is>
       </c>
       <c r="E84" t="n">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="G84" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="H84" t="n">
         <v>15.99</v>
@@ -3310,12 +3310,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>114-0954360-4936208</t>
+          <t>112-8851478-1713031</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 3:33:35 AM PDT</t>
+          <t>Jul 31, 2025 4:12:43 PM PDT</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>113-3694222-8205012</t>
+          <t>113-6367099-5603427</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 4:00:21 AM PDT</t>
+          <t>Jul 31, 2025 4:38:01 PM PDT</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>114-4281204-1071402</t>
+          <t>111-1170110-1277857</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 4:17:12 AM PDT</t>
+          <t>Jul 31, 2025 5:47:24 PM PDT</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>112-3943015-9704246</t>
+          <t>114-4409370-1986619</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 4:20:37 AM PDT</t>
+          <t>Jul 31, 2025 8:49:20 PM PDT</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3446,12 +3446,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>113-0957813-4695427</t>
+          <t>112-4973581-0033838</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 4:49:43 AM PDT</t>
+          <t>Jul 31, 2025 8:58:28 PM PDT</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>111-1155382-5379440</t>
+          <t>114-3173903-7593017</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 4:50:56 AM PDT</t>
+          <t>Aug 1, 2025 12:56:18 AM PDT</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3514,22 +3514,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>114-4721480-8148253</t>
+          <t>112-4510341-2196246</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 4:52:43 AM PDT</t>
+          <t>Aug 1, 2025 1:16:53 AM PDT</t>
         </is>
       </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G91" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H91" t="n">
         <v>15.99</v>
@@ -3548,22 +3548,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>111-5317055-1466654</t>
+          <t>113-0120805-5259412</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 5:08:32 AM PDT</t>
+          <t>Aug 1, 2025 1:36:54 AM PDT</t>
         </is>
       </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G92" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H92" t="n">
         <v>15.99</v>
@@ -3582,12 +3582,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>113-6542541-0399456</t>
+          <t>113-1269329-9542608</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 5:23:39 AM PDT</t>
+          <t>Aug 1, 2025 2:25:08 AM PDT</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>113-2298189-3949001</t>
+          <t>111-8948011-1351403</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 5:38:21 AM PDT</t>
+          <t>Aug 1, 2025 2:55:29 AM PDT</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -3650,22 +3650,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>114-7326787-6645855</t>
+          <t>114-4603511-3173056</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 5:55:54 AM PDT</t>
+          <t>Aug 1, 2025 2:57:58 AM PDT</t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G95" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H95" t="n">
         <v>15.99</v>
@@ -3684,12 +3684,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>111-4523642-0081017</t>
+          <t>114-0954360-4936208</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 6:05:59 AM PDT</t>
+          <t>Aug 1, 2025 3:33:35 AM PDT</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -3718,12 +3718,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>111-9177302-4029837</t>
+          <t>113-3694222-8205012</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 6:20:19 AM PDT</t>
+          <t>Aug 1, 2025 4:00:21 AM PDT</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>113-3036151-5057844</t>
+          <t>114-4281204-1071402</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 6:56:48 AM PDT</t>
+          <t>Aug 1, 2025 4:17:12 AM PDT</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -3786,12 +3786,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>112-0104594-9615413</t>
+          <t>112-3943015-9704246</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 7:26:51 AM PDT</t>
+          <t>Aug 1, 2025 4:20:37 AM PDT</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3820,22 +3820,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>111-2056537-5385854</t>
+          <t>113-0957813-4695427</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 7:28:40 AM PDT</t>
+          <t>Aug 1, 2025 4:49:43 AM PDT</t>
         </is>
       </c>
       <c r="E100" t="n">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G100" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H100" t="n">
         <v>15.99</v>
@@ -3854,12 +3854,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>114-3873753-0098614</t>
+          <t>111-1155382-5379440</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 7:30:09 AM PDT</t>
+          <t>Aug 1, 2025 4:50:56 AM PDT</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>111-9764075-1137833</t>
+          <t>114-4721480-8148253</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 7:57:17 AM PDT</t>
+          <t>Aug 1, 2025 4:52:43 AM PDT</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -3922,12 +3922,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>111-7196409-7867418</t>
+          <t>111-5317055-1466654</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 8:24:48 AM PDT</t>
+          <t>Aug 1, 2025 5:08:32 AM PDT</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>114-8904121-9447423</t>
+          <t>113-6542541-0399456</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 8:29:40 AM PDT</t>
+          <t>Aug 1, 2025 5:23:39 AM PDT</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -3990,12 +3990,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>114-3835763-3149831</t>
+          <t>113-2298189-3949001</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 8:42:43 AM PDT</t>
+          <t>Aug 1, 2025 5:38:21 AM PDT</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>111-3510797-4066616</t>
+          <t>114-7326787-6645855</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 8:46:47 AM PDT</t>
+          <t>Aug 1, 2025 5:55:54 AM PDT</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4058,12 +4058,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>113-0499659-3135412</t>
+          <t>111-4523642-0081017</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 9:18:55 AM PDT</t>
+          <t>Aug 1, 2025 6:05:59 AM PDT</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -4092,12 +4092,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>112-3286342-7577019</t>
+          <t>111-9177302-4029837</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 11:13:08 AM PDT</t>
+          <t>Aug 1, 2025 6:20:19 AM PDT</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -4126,22 +4126,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>112-9038911-7457009</t>
+          <t>113-3036151-5057844</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 10:28:03 PM PDT</t>
+          <t>Aug 1, 2025 6:56:48 AM PDT</t>
         </is>
       </c>
       <c r="E109" t="n">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="G109" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="H109" t="n">
         <v>15.99</v>
@@ -4160,12 +4160,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>113-7720328-2330607</t>
+          <t>112-0104594-9615413</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 11:27:02 PM PDT</t>
+          <t>Aug 1, 2025 7:26:51 AM PDT</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -4194,22 +4194,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>113-4815258-6902631</t>
+          <t>111-2056537-5385854</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 11:42:43 PM PDT</t>
+          <t>Aug 1, 2025 7:28:40 AM PDT</t>
         </is>
       </c>
       <c r="E111" t="n">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G111" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H111" t="n">
         <v>15.99</v>
@@ -4228,22 +4228,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>112-2585306-0204257</t>
+          <t>114-3873753-0098614</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 1:10:28 AM PDT</t>
+          <t>Aug 1, 2025 7:30:09 AM PDT</t>
         </is>
       </c>
       <c r="E112" t="n">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="G112" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="H112" t="n">
         <v>15.99</v>
@@ -4262,22 +4262,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>113-6372240-3766611</t>
+          <t>111-9764075-1137833</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 1:28:38 AM PDT</t>
+          <t>Aug 1, 2025 7:57:17 AM PDT</t>
         </is>
       </c>
       <c r="E113" t="n">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G113" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H113" t="n">
         <v>15.99</v>
@@ -4296,25 +4296,25 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>114-3068397-4265816</t>
+          <t>111-7196409-7867418</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 1:53:05 AM PDT</t>
+          <t>Aug 1, 2025 8:24:48 AM PDT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>31.6</v>
+        <v>15.8</v>
       </c>
       <c r="G114" t="n">
         <v>15.8</v>
       </c>
       <c r="H114" t="n">
-        <v>31.98</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="115">
@@ -4330,22 +4330,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>114-0595122-6540210</t>
+          <t>114-8904121-9447423</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 1:54:06 AM PDT</t>
+          <t>Aug 1, 2025 8:29:40 AM PDT</t>
         </is>
       </c>
       <c r="E115" t="n">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G115" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H115" t="n">
         <v>15.99</v>
@@ -4364,12 +4364,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>111-2547224-4033017</t>
+          <t>114-3835763-3149831</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 2:33:25 AM PDT</t>
+          <t>Aug 1, 2025 8:42:43 AM PDT</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4398,22 +4398,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>113-6046503-4492226</t>
+          <t>111-3510797-4066616</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 3:00:01 AM PDT</t>
+          <t>Aug 1, 2025 8:46:47 AM PDT</t>
         </is>
       </c>
       <c r="E117" t="n">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="H117" t="n">
         <v>15.99</v>
@@ -4432,12 +4432,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>112-6405900-0533867</t>
+          <t>113-0499659-3135412</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 3:37:40 AM PDT</t>
+          <t>Aug 1, 2025 9:18:55 AM PDT</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -4466,22 +4466,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>113-9156458-1309026</t>
+          <t>112-3286342-7577019</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 3:48:28 AM PDT</t>
+          <t>Aug 1, 2025 11:13:08 AM PDT</t>
         </is>
       </c>
       <c r="E119" t="n">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G119" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H119" t="n">
         <v>15.99</v>
@@ -4500,22 +4500,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>111-4198977-0586608</t>
+          <t>112-9038911-7457009</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 4:04:05 AM PDT</t>
+          <t>Aug 1, 2025 10:28:03 PM PDT</t>
         </is>
       </c>
       <c r="E120" t="n">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="G120" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="H120" t="n">
         <v>15.99</v>
@@ -4534,12 +4534,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>114-2287809-2285032</t>
+          <t>113-7720328-2330607</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 4:14:37 AM PDT</t>
+          <t>Aug 1, 2025 11:27:02 PM PDT</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -4568,25 +4568,25 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>112-2305740-7178650</t>
+          <t>113-4815258-6902631</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 5:01:52 AM PDT</t>
+          <t>Aug 1, 2025 11:42:43 PM PDT</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>47.64</v>
+        <v>15.8</v>
       </c>
       <c r="G122" t="n">
-        <v>15.88</v>
+        <v>15.8</v>
       </c>
       <c r="H122" t="n">
-        <v>47.97</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="123">
@@ -4602,22 +4602,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>112-2305740-7178650</t>
+          <t>112-2585306-0204257</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 5:01:52 AM PDT</t>
+          <t>Aug 2, 2025 1:10:28 AM PDT</t>
         </is>
       </c>
       <c r="E123" t="n">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>15.88</v>
+        <v>15.91</v>
       </c>
       <c r="G123" t="n">
-        <v>15.88</v>
+        <v>15.91</v>
       </c>
       <c r="H123" t="n">
         <v>15.99</v>
@@ -4636,22 +4636,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>114-3077490-4582607</t>
+          <t>113-6372240-3766611</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 5:25:19 AM PDT</t>
+          <t>Aug 2, 2025 1:28:38 AM PDT</t>
         </is>
       </c>
       <c r="E124" t="n">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G124" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H124" t="n">
         <v>15.99</v>
@@ -4670,25 +4670,25 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>111-8012866-7809843</t>
+          <t>114-3068397-4265816</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 5:34:18 AM PDT</t>
+          <t>Aug 2, 2025 1:53:05 AM PDT</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" t="n">
-        <v>15.8</v>
+        <v>31.6</v>
       </c>
       <c r="G125" t="n">
         <v>15.8</v>
       </c>
       <c r="H125" t="n">
-        <v>15.99</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="126">
@@ -4704,12 +4704,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>112-3135925-3437829</t>
+          <t>114-0595122-6540210</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 5:38:16 AM PDT</t>
+          <t>Aug 2, 2025 1:54:06 AM PDT</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4738,12 +4738,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>112-3135925-3437829</t>
+          <t>111-2547224-4033017</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 5:38:16 AM PDT</t>
+          <t>Aug 2, 2025 2:33:25 AM PDT</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -4772,22 +4772,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>112-6030393-7649010</t>
+          <t>113-6046503-4492226</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 5:49:42 AM PDT</t>
+          <t>Aug 2, 2025 3:00:01 AM PDT</t>
         </is>
       </c>
       <c r="E128" t="n">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>15.91</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>15.91</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>15.99</v>
@@ -4806,22 +4806,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>114-8176346-7932241</t>
+          <t>112-6405900-0533867</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 5:59:47 AM PDT</t>
+          <t>Aug 2, 2025 3:37:40 AM PDT</t>
         </is>
       </c>
       <c r="E129" t="n">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G129" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H129" t="n">
         <v>15.99</v>
@@ -4840,22 +4840,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>113-4940899-9625805</t>
+          <t>113-9156458-1309026</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 6:23:04 AM PDT</t>
+          <t>Aug 2, 2025 3:48:28 AM PDT</t>
         </is>
       </c>
       <c r="E130" t="n">
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G130" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H130" t="n">
         <v>15.99</v>
@@ -4874,22 +4874,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>112-7288667-4229003</t>
+          <t>111-4198977-0586608</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 6:32:31 AM PDT</t>
+          <t>Aug 2, 2025 4:04:05 AM PDT</t>
         </is>
       </c>
       <c r="E131" t="n">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G131" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H131" t="n">
         <v>15.99</v>
@@ -4908,12 +4908,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>111-5451020-4698632</t>
+          <t>114-2287809-2285032</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 6:49:06 AM PDT</t>
+          <t>Aug 2, 2025 4:14:37 AM PDT</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -4942,25 +4942,25 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>111-5451020-4698632</t>
+          <t>112-2305740-7178650</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 6:49:06 AM PDT</t>
+          <t>Aug 2, 2025 5:01:52 AM PDT</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>15.8</v>
+        <v>47.64</v>
       </c>
       <c r="G133" t="n">
-        <v>15.8</v>
+        <v>15.88</v>
       </c>
       <c r="H133" t="n">
-        <v>15.99</v>
+        <v>47.97</v>
       </c>
     </row>
     <row r="134">
@@ -4976,22 +4976,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>111-7999936-9757813</t>
+          <t>112-2305740-7178650</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 6:50:21 AM PDT</t>
+          <t>Aug 2, 2025 5:01:52 AM PDT</t>
         </is>
       </c>
       <c r="E134" t="n">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>15.8</v>
+        <v>15.88</v>
       </c>
       <c r="G134" t="n">
-        <v>15.8</v>
+        <v>15.88</v>
       </c>
       <c r="H134" t="n">
         <v>15.99</v>
@@ -5010,12 +5010,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>112-9709796-5105803</t>
+          <t>114-3077490-4582607</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 6:58:24 AM PDT</t>
+          <t>Aug 2, 2025 5:25:19 AM PDT</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -5044,12 +5044,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>112-0648340-8111414</t>
+          <t>111-8012866-7809843</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 7:00:02 AM PDT</t>
+          <t>Aug 2, 2025 5:34:18 AM PDT</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -5078,22 +5078,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>112-0810193-1300207</t>
+          <t>112-3135925-3437829</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 7:14:26 AM PDT</t>
+          <t>Aug 2, 2025 5:38:16 AM PDT</t>
         </is>
       </c>
       <c r="E137" t="n">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G137" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H137" t="n">
         <v>15.99</v>
@@ -5112,12 +5112,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>112-3471907-1530642</t>
+          <t>112-3135925-3437829</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 8:09:50 AM PDT</t>
+          <t>Aug 2, 2025 5:38:16 AM PDT</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -5146,22 +5146,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>113-0556870-7309039</t>
+          <t>112-6030393-7649010</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 8:18:44 AM PDT</t>
+          <t>Aug 2, 2025 5:49:42 AM PDT</t>
         </is>
       </c>
       <c r="E139" t="n">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="G139" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="H139" t="n">
         <v>15.99</v>
@@ -5180,22 +5180,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>113-9315822-6813814</t>
+          <t>114-8176346-7932241</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 9:16:55 AM PDT</t>
+          <t>Aug 2, 2025 5:59:47 AM PDT</t>
         </is>
       </c>
       <c r="E140" t="n">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G140" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H140" t="n">
         <v>15.99</v>
@@ -5214,12 +5214,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>112-0242631-3921038</t>
+          <t>113-4940899-9625805</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 5:50:56 PM PDT</t>
+          <t>Aug 2, 2025 6:23:04 AM PDT</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -5248,22 +5248,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>112-9395174-4661031</t>
+          <t>112-7288667-4229003</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 11:33:13 PM PDT</t>
+          <t>Aug 2, 2025 6:32:31 AM PDT</t>
         </is>
       </c>
       <c r="E142" t="n">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G142" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H142" t="n">
         <v>15.99</v>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>113-3499252-1111423</t>
+          <t>111-5451020-4698632</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 11:48:50 PM PDT</t>
+          <t>Aug 2, 2025 6:49:06 AM PDT</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -5316,22 +5316,22 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>112-4948558-0737819</t>
+          <t>111-5451020-4698632</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 1:47:49 AM PDT</t>
+          <t>Aug 2, 2025 6:49:06 AM PDT</t>
         </is>
       </c>
       <c r="E144" t="n">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G144" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H144" t="n">
         <v>15.99</v>
@@ -5350,12 +5350,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>113-0028068-6669065</t>
+          <t>111-7999936-9757813</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 2:44:01 AM PDT</t>
+          <t>Aug 2, 2025 6:50:21 AM PDT</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>113-3370363-6188228</t>
+          <t>112-9709796-5105803</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 3:13:10 AM PDT</t>
+          <t>Aug 2, 2025 6:58:24 AM PDT</t>
         </is>
       </c>
       <c r="E146" t="n">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G146" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H146" t="n">
         <v>15.99</v>
@@ -5418,12 +5418,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>112-8771086-7296236</t>
+          <t>112-0648340-8111414</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 3:28:18 AM PDT</t>
+          <t>Aug 2, 2025 7:00:02 AM PDT</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5452,22 +5452,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>114-2490279-9045827</t>
+          <t>112-0810193-1300207</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 4:08:20 AM PDT</t>
+          <t>Aug 2, 2025 7:14:26 AM PDT</t>
         </is>
       </c>
       <c r="E148" t="n">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="G148" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="H148" t="n">
         <v>15.99</v>
@@ -5486,12 +5486,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>112-7014176-0041017</t>
+          <t>112-3471907-1530642</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 4:22:34 AM PDT</t>
+          <t>Aug 2, 2025 8:09:50 AM PDT</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -5520,12 +5520,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>113-9872169-4661008</t>
+          <t>113-0556870-7309039</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 5:25:04 AM PDT</t>
+          <t>Aug 2, 2025 8:18:44 AM PDT</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -5554,12 +5554,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>111-9756217-1561055</t>
+          <t>113-9315822-6813814</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 5:37:47 AM PDT</t>
+          <t>Aug 2, 2025 9:16:55 AM PDT</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -5588,12 +5588,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>113-1731289-2714637</t>
+          <t>112-0242631-3921038</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 6:01:05 AM PDT</t>
+          <t>Aug 2, 2025 5:50:56 PM PDT</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -5622,22 +5622,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>114-9965130-1171439</t>
+          <t>112-9395174-4661031</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 6:29:42 AM PDT</t>
+          <t>Aug 2, 2025 11:33:13 PM PDT</t>
         </is>
       </c>
       <c r="E153" t="n">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G153" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H153" t="n">
         <v>15.99</v>
@@ -5656,22 +5656,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>114-4884431-4556231</t>
+          <t>113-3499252-1111423</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 7:04:29 AM PDT</t>
+          <t>Aug 2, 2025 11:48:50 PM PDT</t>
         </is>
       </c>
       <c r="E154" t="n">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="G154" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="H154" t="n">
         <v>15.99</v>
@@ -5690,22 +5690,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>112-2951221-5381036</t>
+          <t>112-4948558-0737819</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 7:49:45 AM PDT</t>
+          <t>Aug 3, 2025 1:47:49 AM PDT</t>
         </is>
       </c>
       <c r="E155" t="n">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G155" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H155" t="n">
         <v>15.99</v>
@@ -5724,22 +5724,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>111-7693855-5143459</t>
+          <t>113-0028068-6669065</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 8:07:42 AM PDT</t>
+          <t>Aug 3, 2025 2:44:01 AM PDT</t>
         </is>
       </c>
       <c r="E156" t="n">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G156" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H156" t="n">
         <v>15.99</v>
@@ -5758,12 +5758,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>111-9162448-6443436</t>
+          <t>113-3370363-6188228</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 8:18:04 AM PDT</t>
+          <t>Aug 3, 2025 3:13:10 AM PDT</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -5792,12 +5792,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>112-1327258-6561844</t>
+          <t>112-8771086-7296236</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 8:49:51 AM PDT</t>
+          <t>Aug 3, 2025 3:28:18 AM PDT</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5826,22 +5826,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>111-0548316-7689839</t>
+          <t>114-2490279-9045827</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 9:10:06 AM PDT</t>
+          <t>Aug 3, 2025 4:08:20 AM PDT</t>
         </is>
       </c>
       <c r="E159" t="n">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="G159" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="H159" t="n">
         <v>15.99</v>
@@ -5860,12 +5860,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>112-8877912-6745854</t>
+          <t>112-7014176-0041017</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 9:23:00 AM PDT</t>
+          <t>Aug 3, 2025 4:22:34 AM PDT</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -5894,22 +5894,22 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>112-4833504-2618661</t>
+          <t>113-9872169-4661008</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 3:45:01 PM PDT</t>
+          <t>Aug 3, 2025 5:25:04 AM PDT</t>
         </is>
       </c>
       <c r="E161" t="n">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G161" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H161" t="n">
         <v>15.99</v>
@@ -5928,12 +5928,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>111-6200644-6901004</t>
+          <t>111-9756217-1561055</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 2:01:11 AM PDT</t>
+          <t>Aug 3, 2025 5:37:47 AM PDT</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -5962,22 +5962,22 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>114-1114896-4405809</t>
+          <t>113-1731289-2714637</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 2:07:26 AM PDT</t>
+          <t>Aug 3, 2025 6:01:05 AM PDT</t>
         </is>
       </c>
       <c r="E163" t="n">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G163" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H163" t="n">
         <v>15.99</v>
@@ -5996,22 +5996,22 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>111-7717753-1292226</t>
+          <t>114-9965130-1171439</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 2:08:43 AM PDT</t>
+          <t>Aug 3, 2025 6:29:42 AM PDT</t>
         </is>
       </c>
       <c r="E164" t="n">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G164" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H164" t="n">
         <v>15.99</v>
@@ -6030,22 +6030,22 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>114-4696854-7440234</t>
+          <t>114-4884431-4556231</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 2:59:03 AM PDT</t>
+          <t>Aug 3, 2025 7:04:29 AM PDT</t>
         </is>
       </c>
       <c r="E165" t="n">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="G165" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="H165" t="n">
         <v>15.99</v>
@@ -6064,12 +6064,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>113-2948370-6643465</t>
+          <t>112-2951221-5381036</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 3:47:17 AM PDT</t>
+          <t>Aug 3, 2025 7:49:45 AM PDT</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -6098,22 +6098,22 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>112-4454198-5873810</t>
+          <t>111-7693855-5143459</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 3:49:46 AM PDT</t>
+          <t>Aug 3, 2025 8:07:42 AM PDT</t>
         </is>
       </c>
       <c r="E167" t="n">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G167" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H167" t="n">
         <v>15.99</v>
@@ -6132,22 +6132,22 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>114-1179758-7099431</t>
+          <t>111-9162448-6443436</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 4:24:36 AM PDT</t>
+          <t>Aug 3, 2025 8:18:04 AM PDT</t>
         </is>
       </c>
       <c r="E168" t="n">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>15.96</v>
+        <v>15.89</v>
       </c>
       <c r="G168" t="n">
-        <v>15.96</v>
+        <v>15.89</v>
       </c>
       <c r="H168" t="n">
         <v>15.99</v>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>113-9019020-0980246</t>
+          <t>112-1327258-6561844</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 4:53:01 AM PDT</t>
+          <t>Aug 3, 2025 8:49:51 AM PDT</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -6200,12 +6200,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>111-6633807-7192258</t>
+          <t>111-0548316-7689839</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 6:22:10 AM PDT</t>
+          <t>Aug 3, 2025 9:10:06 AM PDT</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -6234,12 +6234,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>113-8597266-3503437</t>
+          <t>112-8877912-6745854</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 6:26:15 AM PDT</t>
+          <t>Aug 3, 2025 9:23:00 AM PDT</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -6268,22 +6268,22 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>111-9961875-2468210</t>
+          <t>112-4833504-2618661</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 6:43:37 AM PDT</t>
+          <t>Aug 3, 2025 3:45:01 PM PDT</t>
         </is>
       </c>
       <c r="E172" t="n">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G172" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H172" t="n">
         <v>15.99</v>
@@ -6302,12 +6302,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>111-8912951-4086617</t>
+          <t>111-6200644-6901004</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 7:14:07 AM PDT</t>
+          <t>Aug 4, 2025 2:01:11 AM PDT</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -6336,22 +6336,22 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>112-2019036-4754638</t>
+          <t>114-1114896-4405809</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 9:06:38 AM PDT</t>
+          <t>Aug 4, 2025 2:07:26 AM PDT</t>
         </is>
       </c>
       <c r="E174" t="n">
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G174" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H174" t="n">
         <v>15.99</v>
@@ -6370,12 +6370,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>112-2019036-4754638</t>
+          <t>111-7717753-1292226</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 9:06:38 AM PDT</t>
+          <t>Aug 4, 2025 2:08:43 AM PDT</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>113-5902546-1468264</t>
+          <t>114-4696854-7440234</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 12:03:13 PM PDT</t>
+          <t>Aug 4, 2025 2:59:03 AM PDT</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -6438,22 +6438,22 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>112-4013436-7986606</t>
+          <t>113-2948370-6643465</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 2:10:04 PM PDT</t>
+          <t>Aug 4, 2025 3:47:17 AM PDT</t>
         </is>
       </c>
       <c r="E177" t="n">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="G177" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="H177" t="n">
         <v>15.99</v>
@@ -6472,22 +6472,22 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>114-4726374-2032252</t>
+          <t>112-4454198-5873810</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 6:04:05 PM PDT</t>
+          <t>Aug 4, 2025 3:49:46 AM PDT</t>
         </is>
       </c>
       <c r="E178" t="n">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G178" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H178" t="n">
         <v>15.99</v>
@@ -6506,22 +6506,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>112-7111507-1037822</t>
+          <t>114-1179758-7099431</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 7:23:01 PM PDT</t>
+          <t>Aug 4, 2025 4:24:36 AM PDT</t>
         </is>
       </c>
       <c r="E179" t="n">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>15.96</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>15.96</v>
       </c>
       <c r="H179" t="n">
         <v>15.99</v>
@@ -6540,22 +6540,22 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>111-4032473-9280266</t>
+          <t>113-9019020-0980246</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 11:18:36 PM PDT</t>
+          <t>Aug 4, 2025 4:53:01 AM PDT</t>
         </is>
       </c>
       <c r="E180" t="n">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>15.93</v>
+        <v>15.8</v>
       </c>
       <c r="G180" t="n">
-        <v>15.93</v>
+        <v>15.8</v>
       </c>
       <c r="H180" t="n">
         <v>15.99</v>
@@ -6574,22 +6574,22 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>111-4032473-9280266</t>
+          <t>111-6633807-7192258</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 11:18:36 PM PDT</t>
+          <t>Aug 4, 2025 6:22:10 AM PDT</t>
         </is>
       </c>
       <c r="E181" t="n">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>15.93</v>
+        <v>15.8</v>
       </c>
       <c r="G181" t="n">
-        <v>15.93</v>
+        <v>15.8</v>
       </c>
       <c r="H181" t="n">
         <v>15.99</v>
@@ -6608,12 +6608,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>113-8686302-4471427</t>
+          <t>113-8597266-3503437</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 11:23:31 PM PDT</t>
+          <t>Aug 4, 2025 6:26:15 AM PDT</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -6642,12 +6642,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>111-2166791-7025065</t>
+          <t>111-9961875-2468210</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 2:10:16 AM PDT</t>
+          <t>Aug 4, 2025 6:43:37 AM PDT</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -6676,22 +6676,22 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>113-1985097-3967404</t>
+          <t>111-8912951-4086617</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 2:48:48 AM PDT</t>
+          <t>Aug 4, 2025 7:14:07 AM PDT</t>
         </is>
       </c>
       <c r="E184" t="n">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H184" t="n">
         <v>15.99</v>
@@ -6710,12 +6710,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>114-5110199-0824264</t>
+          <t>112-2019036-4754638</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 3:08:37 AM PDT</t>
+          <t>Aug 4, 2025 9:06:38 AM PDT</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -6744,12 +6744,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>111-4350727-6373808</t>
+          <t>112-2019036-4754638</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 3:53:21 AM PDT</t>
+          <t>Aug 4, 2025 9:06:38 AM PDT</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -6778,12 +6778,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>113-2350259-5380242</t>
+          <t>113-5902546-1468264</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 4:15:27 AM PDT</t>
+          <t>Aug 4, 2025 12:03:13 PM PDT</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -6812,22 +6812,22 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>113-3310944-5748244</t>
+          <t>112-4013436-7986606</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 4:46:59 AM PDT</t>
+          <t>Aug 4, 2025 2:10:04 PM PDT</t>
         </is>
       </c>
       <c r="E188" t="n">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>15.89</v>
+        <v>15.91</v>
       </c>
       <c r="G188" t="n">
-        <v>15.89</v>
+        <v>15.91</v>
       </c>
       <c r="H188" t="n">
         <v>15.99</v>
@@ -6846,22 +6846,22 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>111-8671937-4341033</t>
+          <t>114-4726374-2032252</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 6:31:03 AM PDT</t>
+          <t>Aug 4, 2025 6:04:05 PM PDT</t>
         </is>
       </c>
       <c r="E189" t="n">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G189" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H189" t="n">
         <v>15.99</v>
@@ -6880,22 +6880,22 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>111-4882602-7365064</t>
+          <t>112-7111507-1037822</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 6:36:25 AM PDT</t>
+          <t>Aug 4, 2025 7:23:01 PM PDT</t>
         </is>
       </c>
       <c r="E190" t="n">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="H190" t="n">
         <v>15.99</v>
@@ -6914,22 +6914,22 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>111-1733294-3294655</t>
+          <t>111-4032473-9280266</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 6:53:12 AM PDT</t>
+          <t>Aug 4, 2025 11:18:36 PM PDT</t>
         </is>
       </c>
       <c r="E191" t="n">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>15.8</v>
+        <v>15.93</v>
       </c>
       <c r="G191" t="n">
-        <v>15.8</v>
+        <v>15.93</v>
       </c>
       <c r="H191" t="n">
         <v>15.99</v>
@@ -6948,22 +6948,22 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>111-2047633-1287412</t>
+          <t>111-4032473-9280266</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 7:05:19 AM PDT</t>
+          <t>Aug 4, 2025 11:18:36 PM PDT</t>
         </is>
       </c>
       <c r="E192" t="n">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>15.8</v>
+        <v>15.93</v>
       </c>
       <c r="G192" t="n">
-        <v>15.8</v>
+        <v>15.93</v>
       </c>
       <c r="H192" t="n">
         <v>15.99</v>
@@ -6982,12 +6982,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>111-8012463-1954646</t>
+          <t>113-8686302-4471427</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 7:15:37 AM PDT</t>
+          <t>Aug 4, 2025 11:23:31 PM PDT</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -7016,12 +7016,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>113-2797282-6153027</t>
+          <t>111-2166791-7025065</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 8:17:53 AM PDT</t>
+          <t>Aug 5, 2025 2:10:16 AM PDT</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -7050,22 +7050,22 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>113-5454496-6917030</t>
+          <t>113-1985097-3967404</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 8:44:41 AM PDT</t>
+          <t>Aug 5, 2025 2:48:48 AM PDT</t>
         </is>
       </c>
       <c r="E195" t="n">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
         <v>15.99</v>
@@ -7084,12 +7084,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>114-4775765-2925839</t>
+          <t>114-5110199-0824264</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 8:55:34 AM PDT</t>
+          <t>Aug 5, 2025 3:08:37 AM PDT</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -7118,12 +7118,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>111-1535788-1360211</t>
+          <t>111-4350727-6373808</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 9:19:43 AM PDT</t>
+          <t>Aug 5, 2025 3:53:21 AM PDT</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -7152,12 +7152,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>112-2492465-7930640</t>
+          <t>113-2350259-5380242</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 9:50:56 AM PDT</t>
+          <t>Aug 5, 2025 4:15:27 AM PDT</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -7186,22 +7186,22 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>114-6399168-1009014</t>
+          <t>113-3310944-5748244</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 10:21:27 AM PDT</t>
+          <t>Aug 5, 2025 4:46:59 AM PDT</t>
         </is>
       </c>
       <c r="E199" t="n">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G199" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H199" t="n">
         <v>15.99</v>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>114-9987630-9675450</t>
+          <t>111-8671937-4341033</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 4:33:34 PM PDT</t>
+          <t>Aug 5, 2025 6:31:03 AM PDT</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -7254,25 +7254,25 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>112-6317334-6628249</t>
+          <t>111-4882602-7365064</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 10:07:12 PM PDT</t>
+          <t>Aug 5, 2025 6:36:25 AM PDT</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>31.6</v>
+        <v>15.8</v>
       </c>
       <c r="G201" t="n">
         <v>15.8</v>
       </c>
       <c r="H201" t="n">
-        <v>31.98</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="202">
@@ -7288,22 +7288,22 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>111-2053261-6083456</t>
+          <t>111-1733294-3294655</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 11:20:47 PM PDT</t>
+          <t>Aug 5, 2025 6:53:12 AM PDT</t>
         </is>
       </c>
       <c r="E202" t="n">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G202" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H202" t="n">
         <v>15.99</v>
@@ -7322,22 +7322,22 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>114-0854133-3579407</t>
+          <t>111-2047633-1287412</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 12:21:28 AM PDT</t>
+          <t>Aug 5, 2025 7:05:19 AM PDT</t>
         </is>
       </c>
       <c r="E203" t="n">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G203" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H203" t="n">
         <v>15.99</v>
@@ -7356,22 +7356,22 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>114-5059382-2044252</t>
+          <t>111-8012463-1954646</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 12:31:33 AM PDT</t>
+          <t>Aug 5, 2025 7:15:37 AM PDT</t>
         </is>
       </c>
       <c r="E204" t="n">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G204" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H204" t="n">
         <v>15.99</v>
@@ -7390,22 +7390,22 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>114-6563439-0119445</t>
+          <t>113-2797282-6153027</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 12:38:58 AM PDT</t>
+          <t>Aug 5, 2025 8:17:53 AM PDT</t>
         </is>
       </c>
       <c r="E205" t="n">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G205" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H205" t="n">
         <v>15.99</v>
@@ -7424,25 +7424,25 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>112-7489911-0274602</t>
+          <t>113-5454496-6917030</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 12:48:51 AM PDT</t>
+          <t>Aug 5, 2025 8:44:41 AM PDT</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>31.6</v>
+        <v>15.8</v>
       </c>
       <c r="G206" t="n">
         <v>15.8</v>
       </c>
       <c r="H206" t="n">
-        <v>31.98</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="207">
@@ -7458,12 +7458,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>111-8776253-7497014</t>
+          <t>114-4775765-2925839</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 1:30:27 AM PDT</t>
+          <t>Aug 5, 2025 8:55:34 AM PDT</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -7492,12 +7492,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>111-2906046-9008200</t>
+          <t>111-1535788-1360211</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 2:33:44 AM PDT</t>
+          <t>Aug 5, 2025 9:19:43 AM PDT</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -7526,12 +7526,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>111-3995731-4579428</t>
+          <t>112-2492465-7930640</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 2:51:52 AM PDT</t>
+          <t>Aug 5, 2025 9:50:56 AM PDT</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -7560,12 +7560,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>111-1582850-3797031</t>
+          <t>114-6399168-1009014</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 3:32:13 AM PDT</t>
+          <t>Aug 5, 2025 10:21:27 AM PDT</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -7594,22 +7594,22 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>111-1683543-2165814</t>
+          <t>114-9987630-9675450</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 6:12:33 AM PDT</t>
+          <t>Aug 5, 2025 4:33:34 PM PDT</t>
         </is>
       </c>
       <c r="E211" t="n">
         <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>15.96</v>
+        <v>15.8</v>
       </c>
       <c r="G211" t="n">
-        <v>15.96</v>
+        <v>15.8</v>
       </c>
       <c r="H211" t="n">
         <v>15.99</v>
@@ -7628,25 +7628,25 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>112-6335223-1310646</t>
+          <t>112-6317334-6628249</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 6:16:12 AM PDT</t>
+          <t>Aug 5, 2025 10:07:12 PM PDT</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F212" t="n">
-        <v>15.8</v>
+        <v>31.6</v>
       </c>
       <c r="G212" t="n">
         <v>15.8</v>
       </c>
       <c r="H212" t="n">
-        <v>15.99</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="213">
@@ -7662,22 +7662,22 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>111-4214486-0739423</t>
+          <t>111-2053261-6083456</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 6:19:15 AM PDT</t>
+          <t>Aug 5, 2025 11:20:47 PM PDT</t>
         </is>
       </c>
       <c r="E213" t="n">
         <v>1</v>
       </c>
       <c r="F213" t="n">
-        <v>15.91</v>
+        <v>15.89</v>
       </c>
       <c r="G213" t="n">
-        <v>15.91</v>
+        <v>15.89</v>
       </c>
       <c r="H213" t="n">
         <v>15.99</v>
@@ -7696,25 +7696,25 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>114-5365693-5409833</t>
+          <t>114-0854133-3579407</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 7:07:44 AM PDT</t>
+          <t>Aug 6, 2025 12:21:28 AM PDT</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>31.86</v>
+        <v>15.89</v>
       </c>
       <c r="G214" t="n">
-        <v>15.93</v>
+        <v>15.89</v>
       </c>
       <c r="H214" t="n">
-        <v>31.98</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="215">
@@ -7730,22 +7730,22 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>114-4806255-1380250</t>
+          <t>114-5059382-2044252</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 7:19:29 AM PDT</t>
+          <t>Aug 6, 2025 12:31:33 AM PDT</t>
         </is>
       </c>
       <c r="E215" t="n">
         <v>1</v>
       </c>
       <c r="F215" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G215" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H215" t="n">
         <v>15.99</v>
@@ -7764,22 +7764,22 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>112-0976057-4069803</t>
+          <t>114-6563439-0119445</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 8:16:21 AM PDT</t>
+          <t>Aug 6, 2025 12:38:58 AM PDT</t>
         </is>
       </c>
       <c r="E216" t="n">
         <v>1</v>
       </c>
       <c r="F216" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G216" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H216" t="n">
         <v>15.99</v>
@@ -7798,25 +7798,25 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>113-8697196-1851426</t>
+          <t>112-7489911-0274602</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 9:06:57 AM PDT</t>
+          <t>Aug 6, 2025 12:48:51 AM PDT</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F217" t="n">
-        <v>15.89</v>
+        <v>31.6</v>
       </c>
       <c r="G217" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H217" t="n">
-        <v>15.99</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="218">
@@ -7832,12 +7832,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>113-2465901-2271439</t>
+          <t>111-8776253-7497014</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 8:27:20 PM PDT</t>
+          <t>Aug 6, 2025 1:30:27 AM PDT</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -7866,12 +7866,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>112-0233139-7303435</t>
+          <t>111-2906046-9008200</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 11:13:43 PM PDT</t>
+          <t>Aug 6, 2025 2:33:44 AM PDT</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -7900,12 +7900,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>114-7515749-8704243</t>
+          <t>111-3995731-4579428</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 1:15:48 AM PDT</t>
+          <t>Aug 6, 2025 2:51:52 AM PDT</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -7934,22 +7934,22 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>111-5064987-5981834</t>
+          <t>111-1582850-3797031</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 1:17:01 AM PDT</t>
+          <t>Aug 6, 2025 3:32:13 AM PDT</t>
         </is>
       </c>
       <c r="E221" t="n">
         <v>1</v>
       </c>
       <c r="F221" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="G221" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="H221" t="n">
         <v>15.99</v>
@@ -7968,22 +7968,22 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>113-6440808-6019468</t>
+          <t>111-1683543-2165814</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 1:24:45 AM PDT</t>
+          <t>Aug 6, 2025 6:12:33 AM PDT</t>
         </is>
       </c>
       <c r="E222" t="n">
         <v>1</v>
       </c>
       <c r="F222" t="n">
-        <v>15.8</v>
+        <v>15.96</v>
       </c>
       <c r="G222" t="n">
-        <v>15.8</v>
+        <v>15.96</v>
       </c>
       <c r="H222" t="n">
         <v>15.99</v>
@@ -8002,22 +8002,22 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>113-4080725-8509838</t>
+          <t>112-6335223-1310646</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 1:46:27 AM PDT</t>
+          <t>Aug 6, 2025 6:16:12 AM PDT</t>
         </is>
       </c>
       <c r="E223" t="n">
         <v>1</v>
       </c>
       <c r="F223" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G223" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H223" t="n">
         <v>15.99</v>
@@ -8036,22 +8036,22 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>112-0319402-9230633</t>
+          <t>111-4214486-0739423</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 2:38:50 AM PDT</t>
+          <t>Aug 6, 2025 6:19:15 AM PDT</t>
         </is>
       </c>
       <c r="E224" t="n">
         <v>1</v>
       </c>
       <c r="F224" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="G224" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="H224" t="n">
         <v>15.99</v>
@@ -8070,25 +8070,25 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>111-3032951-8030635</t>
+          <t>114-5365693-5409833</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 2:44:59 AM PDT</t>
+          <t>Aug 6, 2025 7:07:44 AM PDT</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F225" t="n">
-        <v>15.89</v>
+        <v>31.86</v>
       </c>
       <c r="G225" t="n">
-        <v>15.89</v>
+        <v>15.93</v>
       </c>
       <c r="H225" t="n">
-        <v>15.99</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="226">
@@ -8104,22 +8104,22 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>113-9030877-2436235</t>
+          <t>114-4806255-1380250</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 3:06:24 AM PDT</t>
+          <t>Aug 6, 2025 7:19:29 AM PDT</t>
         </is>
       </c>
       <c r="E226" t="n">
         <v>1</v>
       </c>
       <c r="F226" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G226" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H226" t="n">
         <v>15.99</v>
@@ -8138,12 +8138,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>112-8989646-4908233</t>
+          <t>112-0976057-4069803</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 3:14:56 AM PDT</t>
+          <t>Aug 6, 2025 8:16:21 AM PDT</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -8172,12 +8172,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>114-2164641-3849800</t>
+          <t>113-8697196-1851426</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 5:31:25 AM PDT</t>
+          <t>Aug 6, 2025 9:06:57 AM PDT</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -8206,22 +8206,22 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>112-4731888-9782627</t>
+          <t>113-2465901-2271439</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 5:35:00 AM PDT</t>
+          <t>Aug 6, 2025 8:27:20 PM PDT</t>
         </is>
       </c>
       <c r="E229" t="n">
         <v>1</v>
       </c>
       <c r="F229" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G229" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H229" t="n">
         <v>15.99</v>
@@ -8240,12 +8240,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>114-4320715-9605054</t>
+          <t>112-0233139-7303435</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 6:24:51 AM PDT</t>
+          <t>Aug 6, 2025 11:13:43 PM PDT</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -8274,12 +8274,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>114-2639851-2260224</t>
+          <t>114-7515749-8704243</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 7:01:55 AM PDT</t>
+          <t>Aug 7, 2025 1:15:48 AM PDT</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -8308,22 +8308,22 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>113-1154992-7857014</t>
+          <t>111-5064987-5981834</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 8:07:22 AM PDT</t>
+          <t>Aug 7, 2025 1:17:01 AM PDT</t>
         </is>
       </c>
       <c r="E232" t="n">
         <v>1</v>
       </c>
       <c r="F232" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="G232" t="n">
-        <v>15.8</v>
+        <v>15.91</v>
       </c>
       <c r="H232" t="n">
         <v>15.99</v>
@@ -8342,12 +8342,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>114-0208776-8412211</t>
+          <t>113-6440808-6019468</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 8:09:27 AM PDT</t>
+          <t>Aug 7, 2025 1:24:45 AM PDT</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -8376,22 +8376,22 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>112-1751741-8520242</t>
+          <t>113-4080725-8509838</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 8:28:25 AM PDT</t>
+          <t>Aug 7, 2025 1:46:27 AM PDT</t>
         </is>
       </c>
       <c r="E234" t="n">
         <v>1</v>
       </c>
       <c r="F234" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G234" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H234" t="n">
         <v>15.99</v>
@@ -8410,22 +8410,22 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>111-8666647-3125822</t>
+          <t>112-0319402-9230633</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 4:59:53 PM PDT</t>
+          <t>Aug 7, 2025 2:38:50 AM PDT</t>
         </is>
       </c>
       <c r="E235" t="n">
         <v>1</v>
       </c>
       <c r="F235" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G235" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H235" t="n">
         <v>15.99</v>
@@ -8444,22 +8444,22 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>112-3047564-1048212</t>
+          <t>111-3032951-8030635</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 8:26:41 PM PDT</t>
+          <t>Aug 7, 2025 2:44:59 AM PDT</t>
         </is>
       </c>
       <c r="E236" t="n">
         <v>1</v>
       </c>
       <c r="F236" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G236" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H236" t="n">
         <v>15.99</v>
@@ -8478,22 +8478,22 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>114-6709993-0544207</t>
+          <t>113-9030877-2436235</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 10:05:49 PM PDT</t>
+          <t>Aug 7, 2025 3:06:24 AM PDT</t>
         </is>
       </c>
       <c r="E237" t="n">
         <v>1</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="H237" t="n">
         <v>15.99</v>
@@ -8512,22 +8512,22 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>112-3080702-3082645</t>
+          <t>112-8989646-4908233</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 12:09:52 AM PDT</t>
+          <t>Aug 7, 2025 3:14:56 AM PDT</t>
         </is>
       </c>
       <c r="E238" t="n">
         <v>1</v>
       </c>
       <c r="F238" t="n">
-        <v>15.96</v>
+        <v>15.8</v>
       </c>
       <c r="G238" t="n">
-        <v>15.96</v>
+        <v>15.8</v>
       </c>
       <c r="H238" t="n">
         <v>15.99</v>
@@ -8546,22 +8546,22 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>112-0522212-3957819</t>
+          <t>114-2164641-3849800</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 2:06:19 AM PDT</t>
+          <t>Aug 7, 2025 5:31:25 AM PDT</t>
         </is>
       </c>
       <c r="E239" t="n">
         <v>1</v>
       </c>
       <c r="F239" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G239" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H239" t="n">
         <v>15.99</v>
@@ -8580,22 +8580,22 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>111-1840784-6633868</t>
+          <t>112-4731888-9782627</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 2:47:52 AM PDT</t>
+          <t>Aug 7, 2025 5:35:00 AM PDT</t>
         </is>
       </c>
       <c r="E240" t="n">
         <v>1</v>
       </c>
       <c r="F240" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G240" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H240" t="n">
         <v>15.99</v>
@@ -8614,12 +8614,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>113-7345693-4197014</t>
+          <t>114-4320715-9605054</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 3:02:43 AM PDT</t>
+          <t>Aug 7, 2025 6:24:51 AM PDT</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -8648,12 +8648,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>111-9854057-3736261</t>
+          <t>114-2639851-2260224</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 3:06:49 AM PDT</t>
+          <t>Aug 7, 2025 7:01:55 AM PDT</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -8682,22 +8682,22 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>111-3748544-2125046</t>
+          <t>113-1154992-7857014</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 3:13:03 AM PDT</t>
+          <t>Aug 7, 2025 8:07:22 AM PDT</t>
         </is>
       </c>
       <c r="E243" t="n">
         <v>1</v>
       </c>
       <c r="F243" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G243" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H243" t="n">
         <v>15.99</v>
@@ -8716,12 +8716,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>111-3609018-6040232</t>
+          <t>114-0208776-8412211</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 3:18:11 AM PDT</t>
+          <t>Aug 7, 2025 8:09:27 AM PDT</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -8750,12 +8750,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>113-8790263-2322620</t>
+          <t>112-1751741-8520242</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 3:23:11 AM PDT</t>
+          <t>Aug 7, 2025 8:28:25 AM PDT</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -8784,22 +8784,22 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>113-9427190-0743459</t>
+          <t>111-8666647-3125822</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 3:30:47 AM PDT</t>
+          <t>Aug 7, 2025 4:59:53 PM PDT</t>
         </is>
       </c>
       <c r="E246" t="n">
         <v>1</v>
       </c>
       <c r="F246" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G246" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H246" t="n">
         <v>15.99</v>
@@ -8818,22 +8818,22 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>111-5737418-3308208</t>
+          <t>112-3047564-1048212</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 4:35:13 AM PDT</t>
+          <t>Aug 7, 2025 8:26:41 PM PDT</t>
         </is>
       </c>
       <c r="E247" t="n">
         <v>1</v>
       </c>
       <c r="F247" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G247" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H247" t="n">
         <v>15.99</v>
@@ -8852,22 +8852,22 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>112-1950589-0824245</t>
+          <t>114-6709993-0544207</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 4:46:03 AM PDT</t>
+          <t>Aug 7, 2025 10:05:49 PM PDT</t>
         </is>
       </c>
       <c r="E248" t="n">
         <v>1</v>
       </c>
       <c r="F248" t="n">
-        <v>15.89</v>
+        <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>15.89</v>
+        <v>0</v>
       </c>
       <c r="H248" t="n">
         <v>15.99</v>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>114-5666600-1695449</t>
+          <t>112-3080702-3082645</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 5:43:51 AM PDT</t>
+          <t>Aug 8, 2025 12:09:52 AM PDT</t>
         </is>
       </c>
       <c r="E249" t="n">
         <v>1</v>
       </c>
       <c r="F249" t="n">
-        <v>15.8</v>
+        <v>15.96</v>
       </c>
       <c r="G249" t="n">
-        <v>15.8</v>
+        <v>15.96</v>
       </c>
       <c r="H249" t="n">
         <v>15.99</v>
@@ -8920,12 +8920,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>111-0131428-6572219</t>
+          <t>112-0522212-3957819</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 6:50:17 AM PDT</t>
+          <t>Aug 8, 2025 2:06:19 AM PDT</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -8954,22 +8954,22 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>114-0210402-6546604</t>
+          <t>111-1840784-6633868</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 8:13:27 AM PDT</t>
+          <t>Aug 8, 2025 2:47:52 AM PDT</t>
         </is>
       </c>
       <c r="E251" t="n">
         <v>1</v>
       </c>
       <c r="F251" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G251" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H251" t="n">
         <v>15.99</v>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>111-1417469-4014659</t>
+          <t>113-7345693-4197014</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 8:15:20 AM PDT</t>
+          <t>Aug 8, 2025 3:02:43 AM PDT</t>
         </is>
       </c>
       <c r="E252" t="n">
         <v>1</v>
       </c>
       <c r="F252" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G252" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H252" t="n">
         <v>15.99</v>
@@ -9022,25 +9022,25 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>111-6567357-8343437</t>
+          <t>111-9854057-3736261</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 8:30:26 AM PDT</t>
+          <t>Aug 8, 2025 3:06:49 AM PDT</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F253" t="n">
-        <v>31.6</v>
+        <v>15.8</v>
       </c>
       <c r="G253" t="n">
         <v>15.8</v>
       </c>
       <c r="H253" t="n">
-        <v>31.98</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="254">
@@ -9056,12 +9056,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>111-1486861-0097825</t>
+          <t>111-3748544-2125046</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 8:45:17 AM PDT</t>
+          <t>Aug 8, 2025 3:13:03 AM PDT</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -9090,22 +9090,22 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>113-8638505-1539441</t>
+          <t>111-3609018-6040232</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 11:43:36 PM PDT</t>
+          <t>Aug 8, 2025 3:18:11 AM PDT</t>
         </is>
       </c>
       <c r="E255" t="n">
         <v>1</v>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H255" t="n">
         <v>15.99</v>
@@ -9124,12 +9124,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>113-6382864-5213847</t>
+          <t>113-8790263-2322620</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 1:47:06 AM PDT</t>
+          <t>Aug 8, 2025 3:23:11 AM PDT</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -9158,22 +9158,22 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>112-0107422-5186662</t>
+          <t>113-9427190-0743459</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 1:51:22 AM PDT</t>
+          <t>Aug 8, 2025 3:30:47 AM PDT</t>
         </is>
       </c>
       <c r="E257" t="n">
         <v>1</v>
       </c>
       <c r="F257" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G257" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H257" t="n">
         <v>15.99</v>
@@ -9192,12 +9192,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>114-5324493-9538643</t>
+          <t>111-5737418-3308208</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 4:08:55 AM PDT</t>
+          <t>Aug 8, 2025 4:35:13 AM PDT</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -9226,22 +9226,22 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>111-5537162-1903423</t>
+          <t>112-1950589-0824245</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 4:11:07 AM PDT</t>
+          <t>Aug 8, 2025 4:46:03 AM PDT</t>
         </is>
       </c>
       <c r="E259" t="n">
         <v>1</v>
       </c>
       <c r="F259" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G259" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H259" t="n">
         <v>15.99</v>
@@ -9260,12 +9260,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>111-5537162-1903423</t>
+          <t>114-5666600-1695449</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 4:11:07 AM PDT</t>
+          <t>Aug 8, 2025 5:43:51 AM PDT</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -9294,22 +9294,22 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>112-8973918-8750641</t>
+          <t>111-0131428-6572219</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 5:47:54 AM PDT</t>
+          <t>Aug 8, 2025 6:50:17 AM PDT</t>
         </is>
       </c>
       <c r="E261" t="n">
         <v>1</v>
       </c>
       <c r="F261" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="G261" t="n">
-        <v>15.89</v>
+        <v>15.8</v>
       </c>
       <c r="H261" t="n">
         <v>15.99</v>
@@ -9328,22 +9328,22 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>112-3151872-7829000</t>
+          <t>114-0210402-6546604</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 7:12:45 AM PDT</t>
+          <t>Aug 8, 2025 8:13:27 AM PDT</t>
         </is>
       </c>
       <c r="E262" t="n">
         <v>1</v>
       </c>
       <c r="F262" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="G262" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="H262" t="n">
         <v>15.99</v>
@@ -9362,22 +9362,22 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>113-6915731-4376221</t>
+          <t>111-1417469-4014659</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 9:12:08 PM PDT</t>
+          <t>Aug 8, 2025 8:15:20 AM PDT</t>
         </is>
       </c>
       <c r="E263" t="n">
         <v>1</v>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="H263" t="n">
         <v>15.99</v>
@@ -9396,25 +9396,25 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>114-7884625-2881858</t>
+          <t>111-6567357-8343437</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 8:57:49 AM PDT</t>
+          <t>Aug 8, 2025 8:30:26 AM PDT</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F264" t="n">
-        <v>15.91</v>
+        <v>31.6</v>
       </c>
       <c r="G264" t="n">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
       <c r="H264" t="n">
-        <v>15.99</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="265">
@@ -9430,22 +9430,22 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>113-5707738-8150647</t>
+          <t>111-1486861-0097825</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 7:20:17 PM PDT</t>
+          <t>Aug 8, 2025 8:45:17 AM PDT</t>
         </is>
       </c>
       <c r="E265" t="n">
         <v>1</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="H265" t="n">
         <v>15.99</v>
@@ -9464,22 +9464,22 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>112-3991705-6667401</t>
+          <t>113-8638505-1539441</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 8:52:24 AM PDT</t>
+          <t>Aug 8, 2025 11:43:36 PM PDT</t>
         </is>
       </c>
       <c r="E266" t="n">
         <v>1</v>
       </c>
       <c r="F266" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="H266" t="n">
         <v>15.99</v>
@@ -9498,22 +9498,22 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>114-7272858-9087426</t>
+          <t>113-6382864-5213847</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 2:47:13 PM PDT</t>
+          <t>Aug 9, 2025 1:47:06 AM PDT</t>
         </is>
       </c>
       <c r="E267" t="n">
         <v>1</v>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H267" t="n">
         <v>15.99</v>
@@ -9532,25 +9532,25 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>113-1740564-4583402</t>
+          <t>112-0107422-5186662</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 4:45:13 PM PDT</t>
+          <t>Aug 9, 2025 1:51:22 AM PDT</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="H268" t="n">
-        <v>31.98</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="269">
@@ -9566,22 +9566,22 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>113-1740564-4583402</t>
+          <t>114-5324493-9538643</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 4:45:13 PM PDT</t>
+          <t>Aug 9, 2025 4:08:55 AM PDT</t>
         </is>
       </c>
       <c r="E269" t="n">
         <v>1</v>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="H269" t="n">
         <v>15.99</v>
@@ -9600,148 +9600,148 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>113-1740564-4583402</t>
+          <t>111-5537162-1903423</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 4:45:13 PM PDT</t>
+          <t>Aug 9, 2025 4:11:07 AM PDT</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G270" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H270" t="n">
-        <v>31.98</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>B07Y3X733T</t>
+          <t>B01LY3JI7T</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TW-WF-24000-NA</t>
+          <t>TW-VRX-23101e</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>113-5641081-3270669</t>
+          <t>111-5537162-1903423</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 2:20:15 AM PDT</t>
+          <t>Aug 9, 2025 4:11:07 AM PDT</t>
         </is>
       </c>
       <c r="E271" t="n">
         <v>1</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H271" t="n">
-        <v>49.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>B07Y3X733T</t>
+          <t>B01LY3JI7T</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TW-WF-24000-NA</t>
+          <t>TW-VRX-23101e</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>113-7056169-6937815</t>
+          <t>112-8973918-8750641</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 1:28:18 AM PDT</t>
+          <t>Aug 9, 2025 5:47:54 AM PDT</t>
         </is>
       </c>
       <c r="E272" t="n">
         <v>1</v>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="H272" t="n">
-        <v>49.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>B07Y3X733T</t>
+          <t>B01LY3JI7T</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TW-WF-24000-NA</t>
+          <t>TW-VRX-23101e</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>113-1545433-3937808</t>
+          <t>112-3151872-7829000</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 1:28:56 PM PDT</t>
+          <t>Aug 9, 2025 7:12:45 AM PDT</t>
         </is>
       </c>
       <c r="E273" t="n">
         <v>1</v>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H273" t="n">
-        <v>49.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>B07Y3X733T</t>
+          <t>B01LY3JI7T</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TW-WF-24000-NA</t>
+          <t>TW-VRX-23101e</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>113-7157149-1508210</t>
+          <t>113-6915731-4376221</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 3:37:59 PM PDT</t>
+          <t>Aug 9, 2025 9:12:08 PM PDT</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -9754,62 +9754,62 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>49.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>B07Y3X733T</t>
+          <t>B01LY3JI7T</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TW-WF-24000-NA</t>
+          <t>TW-VRX-23101e</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>114-2014303-7175457</t>
+          <t>114-7884625-2881858</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 8:39:07 PM PDT</t>
+          <t>Aug 10, 2025 8:57:49 AM PDT</t>
         </is>
       </c>
       <c r="E275" t="n">
         <v>1</v>
       </c>
       <c r="F275" t="n">
-        <v>0</v>
+        <v>15.91</v>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>15.91</v>
       </c>
       <c r="H275" t="n">
-        <v>49.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>B082FPGS5B</t>
+          <t>B01LY3JI7T</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>TW-WF-26006-A</t>
+          <t>TW-VRX-23101e</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>114-7444628-8021827</t>
+          <t>113-5707738-8150647</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 2:47:31 AM PDT</t>
+          <t>Aug 10, 2025 7:20:17 PM PDT</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -9822,62 +9822,62 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>55.29</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>B07DJ1Q1HK</t>
+          <t>B01LY3JI7T</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>TW-WF-24000-AK</t>
+          <t>TW-VRX-23101e</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>113-8458549-1678639</t>
+          <t>112-3991705-6667401</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 12:00:17 AM PDT</t>
+          <t>Aug 11, 2025 8:52:24 AM PDT</t>
         </is>
       </c>
       <c r="E277" t="n">
         <v>1</v>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H277" t="n">
-        <v>54.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>B07DJ1Q1HK</t>
+          <t>B01LY3JI7T</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TW-WF-24000-AK</t>
+          <t>TW-VRX-23101e</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>113-2083423-6030650</t>
+          <t>114-7272858-9087426</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 12:13:29 AM PDT</t>
+          <t>Aug 11, 2025 2:47:13 PM PDT</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -9890,32 +9890,32 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>54.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>B01D321B4A</t>
+          <t>B01LY3JI7T</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>TW-28010-A</t>
+          <t>TW-VRX-23101e</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>113-5614624-3298654</t>
+          <t>113-1740564-4583402</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 10:31:10 PM PDT</t>
+          <t>Aug 11, 2025 4:45:13 PM PDT</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
@@ -9924,177 +9924,177 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>70.69</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>B09YKYJM93</t>
+          <t>B01LY3JI7T</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TW-CRI-2009464</t>
+          <t>TW-VRX-23101e</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>112-8929525-9091464</t>
+          <t>113-1740564-4583402</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 4:32:17 AM PDT</t>
+          <t>Aug 11, 2025 4:45:13 PM PDT</t>
         </is>
       </c>
       <c r="E280" t="n">
         <v>1</v>
       </c>
       <c r="F280" t="n">
-        <v>11.47</v>
+        <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>11.47</v>
+        <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>11.92</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>B0942VPBPM</t>
+          <t>B01LY3JI7T</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>TW-CRI-2008539</t>
+          <t>TW-VRX-23101e</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>113-0233982-7669066</t>
+          <t>113-1740564-4583402</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 2:53:33 AM PDT</t>
+          <t>Aug 11, 2025 4:45:13 PM PDT</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F281" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>11.7</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>B0942VPBPM</t>
+          <t>B07DJ1Q1HK</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>TW-CRI-2008539</t>
+          <t>TW-WF-24000-AK</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>114-0067461-2458648</t>
+          <t>113-8458549-1678639</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 8:20:45 AM PDT</t>
+          <t>Jul 28, 2025 12:00:17 AM PDT</t>
         </is>
       </c>
       <c r="E282" t="n">
         <v>1</v>
       </c>
       <c r="F282" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>11.7</v>
+        <v>54.99</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>B0942VPBPM</t>
+          <t>B07DJ1Q1HK</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>TW-CRI-2008539</t>
+          <t>TW-WF-24000-AK</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>112-2316231-8001864</t>
+          <t>113-2083423-6030650</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 8:10:38 PM PDT</t>
+          <t>Aug 7, 2025 12:13:29 AM PDT</t>
         </is>
       </c>
       <c r="E283" t="n">
         <v>1</v>
       </c>
       <c r="F283" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>11.7</v>
+        <v>54.99</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>B007MPJ8YU</t>
+          <t>B07KMX1GYX</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>TW-26002-NAK</t>
+          <t>TW-CRI-2005282</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>113-6051038-3238658</t>
+          <t>114-2401907-5305008</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 2:56:35 PM PDT</t>
+          <t>Aug 8, 2025 11:19:35 PM PDT</t>
         </is>
       </c>
       <c r="E284" t="n">
         <v>1</v>
       </c>
       <c r="F284" t="n">
-        <v>0</v>
+        <v>13.06</v>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>13.06</v>
       </c>
       <c r="H284" t="n">
-        <v>39</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="285">
@@ -10110,12 +10110,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>114-2401907-5305008</t>
+          <t>113-3062868-5817057</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 11:19:35 PM PDT</t>
+          <t>Aug 9, 2025 8:04:28 AM PDT</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -10134,430 +10134,430 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>B07KMX1GYX</t>
+          <t>B07KMYWCYG</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>TW-CRI-2005282</t>
+          <t>TW-CRI-2005286</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>113-3062868-5817057</t>
+          <t>113-4933132-3023434</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 8:04:28 AM PDT</t>
+          <t>Aug 8, 2025 11:36:15 PM PDT</t>
         </is>
       </c>
       <c r="E286" t="n">
         <v>1</v>
       </c>
       <c r="F286" t="n">
-        <v>13.06</v>
+        <v>12.38</v>
       </c>
       <c r="G286" t="n">
-        <v>13.06</v>
+        <v>12.38</v>
       </c>
       <c r="H286" t="n">
-        <v>14.48</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>B07KMYWXL5</t>
+          <t>B07KMYWCYG</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>TW-CRI-2005283</t>
+          <t>TW-CRI-2005286</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>112-9580704-4237065</t>
+          <t>112-6768395-6054632</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 12:10:24 AM PDT</t>
+          <t>Aug 10, 2025 8:00:43 AM PDT</t>
         </is>
       </c>
       <c r="E287" t="n">
         <v>1</v>
       </c>
       <c r="F287" t="n">
-        <v>11.14</v>
+        <v>12.38</v>
       </c>
       <c r="G287" t="n">
-        <v>11.14</v>
+        <v>12.38</v>
       </c>
       <c r="H287" t="n">
-        <v>12.24</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>B07KMYWXL5</t>
+          <t>B07KMYWCYG</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TW-CRI-2005283</t>
+          <t>TW-CRI-2005286</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>111-8028921-9663403</t>
+          <t>111-9091500-1012266</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 9:49:13 AM PDT</t>
+          <t>Aug 11, 2025 3:05:33 AM PDT</t>
         </is>
       </c>
       <c r="E288" t="n">
         <v>1</v>
       </c>
       <c r="F288" t="n">
-        <v>11.14</v>
+        <v>12.38</v>
       </c>
       <c r="G288" t="n">
-        <v>11.14</v>
+        <v>12.38</v>
       </c>
       <c r="H288" t="n">
-        <v>12.24</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>B07KMYWCYG</t>
+          <t>B07KMYWXL5</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TW-CRI-2005286</t>
+          <t>TW-CRI-2005283</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>113-4933132-3023434</t>
+          <t>112-9580704-4237065</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 11:36:15 PM PDT</t>
+          <t>Aug 11, 2025 12:10:24 AM PDT</t>
         </is>
       </c>
       <c r="E289" t="n">
         <v>1</v>
       </c>
       <c r="F289" t="n">
-        <v>12.38</v>
+        <v>11.14</v>
       </c>
       <c r="G289" t="n">
-        <v>12.38</v>
+        <v>11.14</v>
       </c>
       <c r="H289" t="n">
-        <v>13.44</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>B07KMYWCYG</t>
+          <t>B07KMYWXL5</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TW-CRI-2005286</t>
+          <t>TW-CRI-2005283</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>112-6768395-6054632</t>
+          <t>111-8028921-9663403</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 8:00:43 AM PDT</t>
+          <t>Aug 11, 2025 9:49:13 AM PDT</t>
         </is>
       </c>
       <c r="E290" t="n">
         <v>1</v>
       </c>
       <c r="F290" t="n">
-        <v>12.38</v>
+        <v>11.14</v>
       </c>
       <c r="G290" t="n">
-        <v>12.38</v>
+        <v>11.14</v>
       </c>
       <c r="H290" t="n">
-        <v>13.44</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>B07KMYWCYG</t>
+          <t>B07QSWJM4V</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>TW-CRI-2005286</t>
+          <t>TW-TPB-B12BK4PK</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>111-9091500-1012266</t>
+          <t>111-7078538-0597031</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 3:05:33 AM PDT</t>
+          <t>Aug 5, 2025 5:39:50 AM PDT</t>
         </is>
       </c>
       <c r="E291" t="n">
         <v>1</v>
       </c>
       <c r="F291" t="n">
-        <v>12.38</v>
+        <v>22.99</v>
       </c>
       <c r="G291" t="n">
-        <v>12.38</v>
+        <v>22.99</v>
       </c>
       <c r="H291" t="n">
-        <v>13.44</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B07Y3X733T</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-WF-24000-NA</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>112-9803505-5053859</t>
+          <t>113-5641081-3270669</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 12:13:33 PM PDT</t>
+          <t>Jul 29, 2025 2:20:15 AM PDT</t>
         </is>
       </c>
       <c r="E292" t="n">
         <v>1</v>
       </c>
       <c r="F292" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>8.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B07Y3X733T</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-WF-24000-NA</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>112-4918621-5219407</t>
+          <t>113-7056169-6937815</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 3:17:33 AM PDT</t>
+          <t>Aug 3, 2025 1:28:18 AM PDT</t>
         </is>
       </c>
       <c r="E293" t="n">
         <v>1</v>
       </c>
       <c r="F293" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>8.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B07Y3X733T</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-WF-24000-NA</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>111-8018522-0784242</t>
+          <t>113-1545433-3937808</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 7:43:03 PM PDT</t>
+          <t>Aug 4, 2025 1:28:56 PM PDT</t>
         </is>
       </c>
       <c r="E294" t="n">
         <v>1</v>
       </c>
       <c r="F294" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>8.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B07Y3X733T</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-WF-24000-NA</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>112-3227875-8635406</t>
+          <t>113-7157149-1508210</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 9:10:44 AM PDT</t>
+          <t>Aug 7, 2025 3:37:59 PM PDT</t>
         </is>
       </c>
       <c r="E295" t="n">
         <v>1</v>
       </c>
       <c r="F295" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>8.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B07Y3X733T</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-WF-24000-NA</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>113-9250474-5825841</t>
+          <t>114-2014303-7175457</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Aug 4, 2025 6:58:01 AM PDT</t>
+          <t>Aug 8, 2025 8:39:07 PM PDT</t>
         </is>
       </c>
       <c r="E296" t="n">
         <v>1</v>
       </c>
       <c r="F296" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>8.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B082FPGS5B</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-WF-26006-A</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>111-4081910-7069842</t>
+          <t>114-7444628-8021827</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 7:38:23 AM PDT</t>
+          <t>Aug 9, 2025 2:47:31 AM PDT</t>
         </is>
       </c>
       <c r="E297" t="n">
         <v>1</v>
       </c>
       <c r="F297" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>8.99</v>
+        <v>55.29</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B084LMSLRY</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-CRI-2007228-1pk</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>112-6911502-4808211</t>
+          <t>112-1701085-6397027</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 10:25:55 PM PDT</t>
+          <t>Jul 29, 2025 5:04:24 AM PDT</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -10576,32 +10576,32 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B084LMSLRY</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-CRI-2007228-1pk</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>113-6465728-6544209</t>
+          <t>113-6968059-2501830</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 7:30:51 AM PDT</t>
+          <t>Jul 31, 2025 6:56:20 AM PDT</t>
         </is>
       </c>
       <c r="E299" t="n">
         <v>1</v>
       </c>
       <c r="F299" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="G299" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="H299" t="n">
         <v>8.99</v>
@@ -10610,32 +10610,32 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B084LMSLRY</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-CRI-2007228-1pk</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>114-9353932-6083422</t>
+          <t>112-0703642-1907432</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 11:49:25 PM PDT</t>
+          <t>Jul 31, 2025 8:55:08 AM PDT</t>
         </is>
       </c>
       <c r="E300" t="n">
         <v>1</v>
       </c>
       <c r="F300" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="G300" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="H300" t="n">
         <v>8.99</v>
@@ -10644,32 +10644,32 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B084LMSLRY</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-CRI-2007228-1pk</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>114-9353932-6083422</t>
+          <t>111-0267855-2893835</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 11:49:25 PM PDT</t>
+          <t>Aug 1, 2025 11:34:28 AM PDT</t>
         </is>
       </c>
       <c r="E301" t="n">
         <v>1</v>
       </c>
       <c r="F301" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="G301" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="H301" t="n">
         <v>8.99</v>
@@ -10678,66 +10678,66 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B084LMSLRY</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-CRI-2007228-1pk</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>114-6357248-7549038</t>
+          <t>112-0865506-3613029</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 5:35:42 AM PDT</t>
+          <t>Aug 1, 2025 7:56:18 PM PDT</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F302" t="n">
-        <v>23.48</v>
+        <v>8.24</v>
       </c>
       <c r="G302" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="H302" t="n">
-        <v>35.96</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>B084LMYDCP</t>
+          <t>B084LMSLRY</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227-1pk</t>
+          <t>TW-CRI-2007228-1pk</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>112-8636883-0842628</t>
+          <t>112-6911502-4808211</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 8:52:04 AM PDT</t>
+          <t>Aug 9, 2025 10:25:55 PM PDT</t>
         </is>
       </c>
       <c r="E303" t="n">
         <v>1</v>
       </c>
       <c r="F303" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="G303" t="n">
-        <v>5.87</v>
+        <v>8.24</v>
       </c>
       <c r="H303" t="n">
         <v>8.99</v>
@@ -10746,22 +10746,22 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>B0DJYMQQJX</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>114-1983785-2053827</t>
+          <t>112-9803505-5053859</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 8:14:20 PM PDT</t>
+          <t>Jul 28, 2025 12:13:33 PM PDT</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -10774,28 +10774,28 @@
         <v>8.24</v>
       </c>
       <c r="H304" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>B0DJYMQQJX</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>114-1983785-2053827</t>
+          <t>112-4918621-5219407</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 8:14:20 PM PDT</t>
+          <t>Jul 30, 2025 3:17:33 AM PDT</t>
         </is>
       </c>
       <c r="E305" t="n">
@@ -10808,28 +10808,28 @@
         <v>8.24</v>
       </c>
       <c r="H305" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>111-6627281-9015462</t>
+          <t>111-8018522-0784242</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 4:43:32 AM PDT</t>
+          <t>Jul 31, 2025 7:43:03 PM PDT</t>
         </is>
       </c>
       <c r="E306" t="n">
@@ -10842,62 +10842,62 @@
         <v>8.24</v>
       </c>
       <c r="H306" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>112-7775809-7185011</t>
+          <t>112-3227875-8635406</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 6:34:51 AM PDT</t>
+          <t>Aug 2, 2025 9:10:44 AM PDT</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F307" t="n">
-        <v>16.48</v>
+        <v>8.24</v>
       </c>
       <c r="G307" t="n">
         <v>8.24</v>
       </c>
       <c r="H307" t="n">
-        <v>53.94</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>112-7775809-7185011</t>
+          <t>113-9250474-5825841</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 6:34:51 AM PDT</t>
+          <t>Aug 4, 2025 6:58:01 AM PDT</t>
         </is>
       </c>
       <c r="E308" t="n">
@@ -10910,62 +10910,62 @@
         <v>8.24</v>
       </c>
       <c r="H308" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>113-3187908-2551463</t>
+          <t>111-4081910-7069842</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 7:23:20 AM PDT</t>
+          <t>Aug 9, 2025 7:38:23 AM PDT</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F309" t="n">
-        <v>16.48</v>
+        <v>8.24</v>
       </c>
       <c r="G309" t="n">
         <v>8.24</v>
       </c>
       <c r="H309" t="n">
-        <v>53.94</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>112-9803505-5053859</t>
+          <t>112-6911502-4808211</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 12:13:33 PM PDT</t>
+          <t>Aug 9, 2025 10:25:55 PM PDT</t>
         </is>
       </c>
       <c r="E310" t="n">
@@ -10978,888 +10978,888 @@
         <v>8.24</v>
       </c>
       <c r="H310" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>114-5811287-7441860</t>
+          <t>113-6465728-6544209</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 11:44:35 PM PDT</t>
+          <t>Aug 10, 2025 7:30:51 AM PDT</t>
         </is>
       </c>
       <c r="E311" t="n">
         <v>1</v>
       </c>
       <c r="F311" t="n">
-        <v>8.24</v>
+        <v>5.87</v>
       </c>
       <c r="G311" t="n">
-        <v>8.24</v>
+        <v>5.87</v>
       </c>
       <c r="H311" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>112-6775197-5086625</t>
+          <t>114-9353932-6083422</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 12:01:08 AM PDT</t>
+          <t>Aug 10, 2025 11:49:25 PM PDT</t>
         </is>
       </c>
       <c r="E312" t="n">
         <v>1</v>
       </c>
       <c r="F312" t="n">
-        <v>8.24</v>
+        <v>5.87</v>
       </c>
       <c r="G312" t="n">
-        <v>8.24</v>
+        <v>5.87</v>
       </c>
       <c r="H312" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>112-2023260-4421067</t>
+          <t>114-9353932-6083422</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 2:15:17 AM PDT</t>
+          <t>Aug 10, 2025 11:49:25 PM PDT</t>
         </is>
       </c>
       <c r="E313" t="n">
         <v>1</v>
       </c>
       <c r="F313" t="n">
-        <v>8.24</v>
+        <v>5.87</v>
       </c>
       <c r="G313" t="n">
-        <v>8.24</v>
+        <v>5.87</v>
       </c>
       <c r="H313" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>111-3535453-3945029</t>
+          <t>114-6357248-7549038</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 4:20:43 AM PDT</t>
+          <t>Aug 11, 2025 5:35:42 AM PDT</t>
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F314" t="n">
-        <v>8.24</v>
+        <v>23.48</v>
       </c>
       <c r="G314" t="n">
-        <v>8.24</v>
+        <v>5.87</v>
       </c>
       <c r="H314" t="n">
-        <v>26.97</v>
+        <v>35.96</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B084LMYDCP</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2007227-1pk</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>112-8276268-5536262</t>
+          <t>112-8636883-0842628</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 7:45:56 PM PDT</t>
+          <t>Aug 11, 2025 8:52:04 AM PDT</t>
         </is>
       </c>
       <c r="E315" t="n">
         <v>1</v>
       </c>
       <c r="F315" t="n">
-        <v>8.24</v>
+        <v>5.87</v>
       </c>
       <c r="G315" t="n">
-        <v>8.24</v>
+        <v>5.87</v>
       </c>
       <c r="H315" t="n">
-        <v>26.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B08ZJS5WGT</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2008788</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>112-7086869-0177851</t>
+          <t>113-7315202-6419435</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 1:33:59 AM PDT</t>
+          <t>Jul 28, 2025 1:56:33 AM PDT</t>
         </is>
       </c>
       <c r="E316" t="n">
         <v>1</v>
       </c>
       <c r="F316" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>26.97</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B08ZJS5WGT</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2008788</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>112-2142273-9776267</t>
+          <t>114-9497005-2373042</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 8:38:51 AM PDT</t>
+          <t>Aug 9, 2025 6:17:17 AM PDT</t>
         </is>
       </c>
       <c r="E317" t="n">
         <v>1</v>
       </c>
       <c r="F317" t="n">
-        <v>8.24</v>
+        <v>7.08</v>
       </c>
       <c r="G317" t="n">
-        <v>8.24</v>
+        <v>7.08</v>
       </c>
       <c r="H317" t="n">
-        <v>26.97</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B08ZJS5WGT</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2008788</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>114-8441857-9127462</t>
+          <t>113-7246251-4063441</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Aug 6, 2025 3:08:05 AM PDT</t>
+          <t>Aug 11, 2025 2:39:20 AM PDT</t>
         </is>
       </c>
       <c r="E318" t="n">
         <v>1</v>
       </c>
       <c r="F318" t="n">
-        <v>8.24</v>
+        <v>7.08</v>
       </c>
       <c r="G318" t="n">
-        <v>8.24</v>
+        <v>7.08</v>
       </c>
       <c r="H318" t="n">
-        <v>26.97</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B0942VPBPM</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2008539</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>112-9503250-6549021</t>
+          <t>113-0233982-7669066</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Aug 7, 2025 12:46:21 PM PDT</t>
+          <t>Aug 11, 2025 2:53:33 AM PDT</t>
         </is>
       </c>
       <c r="E319" t="n">
         <v>1</v>
       </c>
       <c r="F319" t="n">
-        <v>8.24</v>
+        <v>11</v>
       </c>
       <c r="G319" t="n">
-        <v>8.24</v>
+        <v>11</v>
       </c>
       <c r="H319" t="n">
-        <v>26.97</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B0942VPBPM</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2008539</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>113-0549835-5849043</t>
+          <t>114-0067461-2458648</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 12:02:17 AM PDT</t>
+          <t>Aug 11, 2025 8:20:45 AM PDT</t>
         </is>
       </c>
       <c r="E320" t="n">
         <v>1</v>
       </c>
       <c r="F320" t="n">
-        <v>8.24</v>
+        <v>11</v>
       </c>
       <c r="G320" t="n">
-        <v>8.24</v>
+        <v>11</v>
       </c>
       <c r="H320" t="n">
-        <v>26.97</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>B0DJYNJRC4</t>
+          <t>B0942VPBPM</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>TW-CRI-2007232</t>
+          <t>TW-CRI-2008539</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>113-8615898-9685818</t>
+          <t>112-2316231-8001864</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 8:43:24 AM PDT</t>
+          <t>Aug 11, 2025 8:10:38 PM PDT</t>
         </is>
       </c>
       <c r="E321" t="n">
         <v>1</v>
       </c>
       <c r="F321" t="n">
-        <v>8.24</v>
+        <v>11</v>
       </c>
       <c r="G321" t="n">
-        <v>8.24</v>
+        <v>11</v>
       </c>
       <c r="H321" t="n">
-        <v>26.97</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>B0DJYKFZBF</t>
+          <t>B09GPSX3NX</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227</t>
+          <t>TW-PN-P38001-BLCK</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>112-2353292-3005869</t>
+          <t>111-9015819-3281057</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 11:53:28 PM PDT</t>
+          <t>Jul 28, 2025 3:53:00 AM PDT</t>
         </is>
       </c>
       <c r="E322" t="n">
         <v>1</v>
       </c>
       <c r="F322" t="n">
-        <v>8.24</v>
+        <v>95</v>
       </c>
       <c r="G322" t="n">
-        <v>8.24</v>
+        <v>95</v>
       </c>
       <c r="H322" t="n">
-        <v>26.97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>B0DJYKFZBF</t>
+          <t>B09GPSX3NX</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227</t>
+          <t>TW-PN-P38001-BLCK</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>114-2120231-6015431</t>
+          <t>112-2513474-9814658</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 10:34:36 AM PDT</t>
+          <t>Jul 28, 2025 6:52:22 AM PDT</t>
         </is>
       </c>
       <c r="E323" t="n">
         <v>1</v>
       </c>
       <c r="F323" t="n">
-        <v>8.24</v>
+        <v>95</v>
       </c>
       <c r="G323" t="n">
-        <v>8.24</v>
+        <v>95</v>
       </c>
       <c r="H323" t="n">
-        <v>26.97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>B0DJYKFZBF</t>
+          <t>B09GPSX3NX</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TW-CRI-2007227</t>
+          <t>TW-PN-P38001-BLCK</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>112-7543483-2421847</t>
+          <t>113-1692909-4565017</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 1:48:26 AM PDT</t>
+          <t>Aug 8, 2025 6:35:01 AM PDT</t>
         </is>
       </c>
       <c r="E324" t="n">
         <v>1</v>
       </c>
       <c r="F324" t="n">
-        <v>8.24</v>
+        <v>95</v>
       </c>
       <c r="G324" t="n">
-        <v>8.24</v>
+        <v>95</v>
       </c>
       <c r="H324" t="n">
-        <v>26.97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>B08ZJS5WGT</t>
+          <t>B09YKYJM93</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TW-CRI-2008788</t>
+          <t>TW-CRI-2009464</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>113-7315202-6419435</t>
+          <t>112-8929525-9091464</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 1:56:33 AM PDT</t>
+          <t>Aug 8, 2025 4:32:17 AM PDT</t>
         </is>
       </c>
       <c r="E325" t="n">
         <v>1</v>
       </c>
       <c r="F325" t="n">
-        <v>0</v>
+        <v>11.47</v>
       </c>
       <c r="G325" t="n">
-        <v>0</v>
+        <v>11.47</v>
       </c>
       <c r="H325" t="n">
-        <v>7.68</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>B08ZJS5WGT</t>
+          <t>B0BDLD82XG</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>TW-CRI-2008788</t>
+          <t>TW-CRI-2010001</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>114-9497005-2373042</t>
+          <t>114-4832844-6390613</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 6:17:17 AM PDT</t>
+          <t>Aug 11, 2025 3:18:41 AM PDT</t>
         </is>
       </c>
       <c r="E326" t="n">
         <v>1</v>
       </c>
       <c r="F326" t="n">
-        <v>7.08</v>
+        <v>7.8</v>
       </c>
       <c r="G326" t="n">
-        <v>7.08</v>
+        <v>7.8</v>
       </c>
       <c r="H326" t="n">
-        <v>7.68</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>B08ZJS5WGT</t>
+          <t>B0BDLDVB4J</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TW-CRI-2008788</t>
+          <t>TW-CRI-2010002</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>113-7246251-4063441</t>
+          <t>114-2637416-4341010</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 2:39:20 AM PDT</t>
+          <t>Aug 11, 2025 4:07:09 AM PDT</t>
         </is>
       </c>
       <c r="E327" t="n">
         <v>1</v>
       </c>
       <c r="F327" t="n">
-        <v>7.08</v>
+        <v>7.8</v>
       </c>
       <c r="G327" t="n">
-        <v>7.08</v>
+        <v>7.8</v>
       </c>
       <c r="H327" t="n">
-        <v>7.68</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>B01BG2JJLG</t>
+          <t>B0BDLDVB4J</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TW-PN-P21701-TAN</t>
+          <t>TW-CRI-2010002</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>114-4037423-0010614</t>
+          <t>112-7530071-3101008</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 3:18:55 AM PDT</t>
+          <t>Aug 11, 2025 9:31:53 PM PDT</t>
         </is>
       </c>
       <c r="E328" t="n">
         <v>1</v>
       </c>
       <c r="F328" t="n">
-        <v>140</v>
+        <v>7.8</v>
       </c>
       <c r="G328" t="n">
-        <v>140</v>
+        <v>7.8</v>
       </c>
       <c r="H328" t="n">
-        <v>149</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>B01BG2JJLG</t>
+          <t>B0BRBT7XVT</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TW-PN-P21701-TAN</t>
+          <t>TW-00202H00AMZ</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>112-0355855-1402650</t>
+          <t>111-6548336-2590664</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 3:22:02 AM PDT</t>
+          <t>Aug 9, 2025 5:05:48 AM PDT</t>
         </is>
       </c>
       <c r="E329" t="n">
         <v>1</v>
       </c>
       <c r="F329" t="n">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="G329" t="n">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="H329" t="n">
-        <v>149</v>
+        <v>235</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>B084LMSLRY</t>
+          <t>B0BRBT7XVT</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228-1pk</t>
+          <t>TW-00202H00AMZ</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>112-1701085-6397027</t>
+          <t>111-6548336-2590664</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 5:04:24 AM PDT</t>
+          <t>Aug 9, 2025 6:33:06 AM PDT</t>
         </is>
       </c>
       <c r="E330" t="n">
         <v>1</v>
       </c>
       <c r="F330" t="n">
-        <v>8.24</v>
+        <v>195</v>
       </c>
       <c r="G330" t="n">
-        <v>8.24</v>
+        <v>195</v>
       </c>
       <c r="H330" t="n">
-        <v>8.99</v>
+        <v>235</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>B084LMSLRY</t>
+          <t>B0BRZ32RSG</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228-1pk</t>
+          <t>TW-2295AMZ-FBM</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>113-6968059-2501830</t>
+          <t>112-0328742-8689042</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 6:56:20 AM PDT</t>
+          <t>Jul 28, 2025 3:00:22 AM PDT</t>
         </is>
       </c>
       <c r="E331" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F331" t="n">
-        <v>8.24</v>
+        <v>1618.2</v>
       </c>
       <c r="G331" t="n">
-        <v>8.24</v>
+        <v>539.4</v>
       </c>
       <c r="H331" t="n">
-        <v>8.99</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>B084LMSLRY</t>
+          <t>B0BRZ32RSG</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228-1pk</t>
+          <t>TW-2295AMZ-FBM</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>112-0703642-1907432</t>
+          <t>113-4374813-0060263</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 8:55:08 AM PDT</t>
+          <t>Jul 28, 2025 5:39:59 AM PDT</t>
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F332" t="n">
-        <v>8.24</v>
+        <v>1618.2</v>
       </c>
       <c r="G332" t="n">
-        <v>8.24</v>
+        <v>539.4</v>
       </c>
       <c r="H332" t="n">
-        <v>8.99</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>B084LMSLRY</t>
+          <t>B0BRZ32RSG</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228-1pk</t>
+          <t>TW-2295AMZ-FBM</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>111-0267855-2893835</t>
+          <t>113-4841232-5169035</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 11:34:28 AM PDT</t>
+          <t>Aug 1, 2025 2:22:35 AM PDT</t>
         </is>
       </c>
       <c r="E333" t="n">
         <v>1</v>
       </c>
       <c r="F333" t="n">
-        <v>8.24</v>
+        <v>551</v>
       </c>
       <c r="G333" t="n">
-        <v>8.24</v>
+        <v>551</v>
       </c>
       <c r="H333" t="n">
-        <v>8.99</v>
+        <v>580</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>B084LMSLRY</t>
+          <t>B0D69135B6</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228-1pk</t>
+          <t>TW-LIT-410C12AMZ</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>112-0865506-3613029</t>
+          <t>112-3404335-7257812</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 7:56:18 PM PDT</t>
+          <t>Jul 30, 2025 6:10:27 AM PDT</t>
         </is>
       </c>
       <c r="E334" t="n">
         <v>1</v>
       </c>
       <c r="F334" t="n">
-        <v>8.24</v>
+        <v>266</v>
       </c>
       <c r="G334" t="n">
-        <v>8.24</v>
+        <v>266</v>
       </c>
       <c r="H334" t="n">
-        <v>8.99</v>
+        <v>277</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>B084LMSLRY</t>
+          <t>B0D69135B6</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TW-CRI-2007228-1pk</t>
+          <t>TW-LIT-410C12AMZ</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>112-6911502-4808211</t>
+          <t>112-7418891-8977805</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 10:25:55 PM PDT</t>
+          <t>Jul 31, 2025 3:01:06 AM PDT</t>
         </is>
       </c>
       <c r="E335" t="n">
         <v>1</v>
       </c>
       <c r="F335" t="n">
-        <v>8.24</v>
+        <v>266</v>
       </c>
       <c r="G335" t="n">
-        <v>8.24</v>
+        <v>266</v>
       </c>
       <c r="H335" t="n">
-        <v>8.99</v>
+        <v>277</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>B0DMRV12HR</t>
+          <t>B0DJYKFZBF</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TW-CRI-2010001-3pk</t>
+          <t>TW-CRI-2007227</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>113-0904756-0808209</t>
+          <t>112-2353292-3005869</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 11:28:49 PM PDT</t>
+          <t>Aug 3, 2025 11:53:28 PM PDT</t>
         </is>
       </c>
       <c r="E336" t="n">
         <v>1</v>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>8.24</v>
       </c>
       <c r="G336" t="n">
-        <v>0</v>
+        <v>8.24</v>
       </c>
       <c r="H336" t="n">
         <v>26.97</v>
@@ -11868,32 +11868,32 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>B0DMRV12HR</t>
+          <t>B0DJYKFZBF</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TW-CRI-2010001-3pk</t>
+          <t>TW-CRI-2007227</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>114-6487677-1447420</t>
+          <t>114-2120231-6015431</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 11:56:16 PM PDT</t>
+          <t>Aug 8, 2025 10:34:36 AM PDT</t>
         </is>
       </c>
       <c r="E337" t="n">
         <v>1</v>
       </c>
       <c r="F337" t="n">
-        <v>20.49</v>
+        <v>8.24</v>
       </c>
       <c r="G337" t="n">
-        <v>20.49</v>
+        <v>8.24</v>
       </c>
       <c r="H337" t="n">
         <v>26.97</v>
@@ -11902,32 +11902,32 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>B0DMRV12HR</t>
+          <t>B0DJYKFZBF</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TW-CRI-2010001-3pk</t>
+          <t>TW-CRI-2007227</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>113-5775713-0792269</t>
+          <t>112-7543483-2421847</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 3:20:00 PM PDT</t>
+          <t>Aug 10, 2025 1:48:26 AM PDT</t>
         </is>
       </c>
       <c r="E338" t="n">
         <v>1</v>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>8.24</v>
       </c>
       <c r="G338" t="n">
-        <v>0</v>
+        <v>8.24</v>
       </c>
       <c r="H338" t="n">
         <v>26.97</v>
@@ -11936,32 +11936,32 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>B0DMSDMGM6</t>
+          <t>B0DJYMQQJX</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TW-CRI-2010002-3pk</t>
+          <t>TW-CRI-2007228</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>112-0607402-1349043</t>
+          <t>114-1983785-2053827</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Aug 10, 2025 8:39:08 AM PDT</t>
+          <t>Jul 28, 2025 8:14:20 PM PDT</t>
         </is>
       </c>
       <c r="E339" t="n">
         <v>1</v>
       </c>
       <c r="F339" t="n">
-        <v>19.19</v>
+        <v>8.24</v>
       </c>
       <c r="G339" t="n">
-        <v>19.19</v>
+        <v>8.24</v>
       </c>
       <c r="H339" t="n">
         <v>26.97</v>
@@ -11970,715 +11970,715 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>B0BDLD82XG</t>
+          <t>B0DJYMQQJX</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TW-CRI-2010001</t>
+          <t>TW-CRI-2007228</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>114-4832844-6390613</t>
+          <t>114-1983785-2053827</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 3:18:41 AM PDT</t>
+          <t>Jul 28, 2025 8:14:20 PM PDT</t>
         </is>
       </c>
       <c r="E340" t="n">
         <v>1</v>
       </c>
       <c r="F340" t="n">
-        <v>7.8</v>
+        <v>8.24</v>
       </c>
       <c r="G340" t="n">
-        <v>7.8</v>
+        <v>8.24</v>
       </c>
       <c r="H340" t="n">
-        <v>8.99</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>B01GXOR05Y</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TW-PN-P06201-BLCK</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>111-8583099-0277049</t>
+          <t>111-6627281-9015462</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 12:16:35 AM PDT</t>
+          <t>Jul 28, 2025 4:43:32 AM PDT</t>
         </is>
       </c>
       <c r="E341" t="n">
         <v>1</v>
       </c>
       <c r="F341" t="n">
-        <v>147</v>
+        <v>8.24</v>
       </c>
       <c r="G341" t="n">
-        <v>147</v>
+        <v>8.24</v>
       </c>
       <c r="H341" t="n">
-        <v>189</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>B09GPSX3NX</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TW-PN-P38001-BLCK</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>111-9015819-3281057</t>
+          <t>112-7775809-7185011</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 3:53:00 AM PDT</t>
+          <t>Jul 28, 2025 6:34:51 AM PDT</t>
         </is>
       </c>
       <c r="E342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F342" t="n">
-        <v>95</v>
+        <v>16.48</v>
       </c>
       <c r="G342" t="n">
-        <v>95</v>
+        <v>8.24</v>
       </c>
       <c r="H342" t="n">
-        <v>119</v>
+        <v>53.94</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>B09GPSX3NX</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TW-PN-P38001-BLCK</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>112-2513474-9814658</t>
+          <t>112-7775809-7185011</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 6:52:22 AM PDT</t>
+          <t>Jul 28, 2025 6:34:51 AM PDT</t>
         </is>
       </c>
       <c r="E343" t="n">
         <v>1</v>
       </c>
       <c r="F343" t="n">
-        <v>95</v>
+        <v>8.24</v>
       </c>
       <c r="G343" t="n">
-        <v>95</v>
+        <v>8.24</v>
       </c>
       <c r="H343" t="n">
-        <v>119</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>B09GPSX3NX</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TW-PN-P38001-BLCK</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>113-1692909-4565017</t>
+          <t>113-3187908-2551463</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Aug 8, 2025 6:35:01 AM PDT</t>
+          <t>Jul 28, 2025 7:23:20 AM PDT</t>
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F344" t="n">
-        <v>95</v>
+        <v>16.48</v>
       </c>
       <c r="G344" t="n">
-        <v>95</v>
+        <v>8.24</v>
       </c>
       <c r="H344" t="n">
-        <v>119</v>
+        <v>53.94</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>B07QSWJM4V</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TW-TPB-B12BK4PK</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>111-7078538-0597031</t>
+          <t>112-9803505-5053859</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 5:39:50 AM PDT</t>
+          <t>Jul 28, 2025 12:13:33 PM PDT</t>
         </is>
       </c>
       <c r="E345" t="n">
         <v>1</v>
       </c>
       <c r="F345" t="n">
-        <v>22.99</v>
+        <v>8.24</v>
       </c>
       <c r="G345" t="n">
-        <v>22.99</v>
+        <v>8.24</v>
       </c>
       <c r="H345" t="n">
-        <v>29.99</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>B0BRZ32RSG</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TW-2295AMZ-FBM</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>112-0328742-8689042</t>
+          <t>114-5811287-7441860</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 3:00:22 AM PDT</t>
+          <t>Jul 28, 2025 11:44:35 PM PDT</t>
         </is>
       </c>
       <c r="E346" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F346" t="n">
-        <v>1618.2</v>
+        <v>8.24</v>
       </c>
       <c r="G346" t="n">
-        <v>539.4</v>
+        <v>8.24</v>
       </c>
       <c r="H346" t="n">
-        <v>1740</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>B0BRZ32RSG</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TW-2295AMZ-FBM</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>113-4374813-0060263</t>
+          <t>112-6775197-5086625</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Jul 28, 2025 5:39:59 AM PDT</t>
+          <t>Jul 29, 2025 12:01:08 AM PDT</t>
         </is>
       </c>
       <c r="E347" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F347" t="n">
-        <v>1618.2</v>
+        <v>8.24</v>
       </c>
       <c r="G347" t="n">
-        <v>539.4</v>
+        <v>8.24</v>
       </c>
       <c r="H347" t="n">
-        <v>1740</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>B0BRZ32RSG</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TW-2295AMZ-FBM</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>113-4841232-5169035</t>
+          <t>112-2023260-4421067</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 2:22:35 AM PDT</t>
+          <t>Jul 29, 2025 2:15:17 AM PDT</t>
         </is>
       </c>
       <c r="E348" t="n">
         <v>1</v>
       </c>
       <c r="F348" t="n">
-        <v>551</v>
+        <v>8.24</v>
       </c>
       <c r="G348" t="n">
-        <v>551</v>
+        <v>8.24</v>
       </c>
       <c r="H348" t="n">
-        <v>580</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>B00KWK1T80</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>TW-PN-P34519-FLRNC</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>112-3508624-0736225</t>
+          <t>111-3535453-3945029</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Jul 29, 2025 8:15:21 AM PDT</t>
+          <t>Jul 29, 2025 4:20:43 AM PDT</t>
         </is>
       </c>
       <c r="E349" t="n">
         <v>1</v>
       </c>
       <c r="F349" t="n">
-        <v>280</v>
+        <v>8.24</v>
       </c>
       <c r="G349" t="n">
-        <v>280</v>
+        <v>8.24</v>
       </c>
       <c r="H349" t="n">
-        <v>299</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>B01HIQ9NGU</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>TW-V1-510098</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>113-2683791-0066664</t>
+          <t>112-8276268-5536262</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Aug 3, 2025 7:00:43 PM PDT</t>
+          <t>Jul 29, 2025 7:45:56 PM PDT</t>
         </is>
       </c>
       <c r="E350" t="n">
         <v>1</v>
       </c>
       <c r="F350" t="n">
-        <v>24.99</v>
+        <v>8.24</v>
       </c>
       <c r="G350" t="n">
-        <v>24.99</v>
+        <v>8.24</v>
       </c>
       <c r="H350" t="n">
-        <v>26.45</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>B00L9IJL8E</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>TW-PN-P06201</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>112-6603778-6296268</t>
+          <t>112-7086869-0177851</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 6:31:51 AM PDT</t>
+          <t>Aug 1, 2025 1:33:59 AM PDT</t>
         </is>
       </c>
       <c r="E351" t="n">
         <v>1</v>
       </c>
       <c r="F351" t="n">
-        <v>147</v>
+        <v>8.24</v>
       </c>
       <c r="G351" t="n">
-        <v>147</v>
+        <v>8.24</v>
       </c>
       <c r="H351" t="n">
-        <v>189</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>B00L9IJL8E</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TW-PN-P06201</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>113-3875814-1103423</t>
+          <t>112-2142273-9776267</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Aug 1, 2025 7:39:29 AM PDT</t>
+          <t>Aug 1, 2025 8:38:51 AM PDT</t>
         </is>
       </c>
       <c r="E352" t="n">
         <v>1</v>
       </c>
       <c r="F352" t="n">
-        <v>147</v>
+        <v>8.24</v>
       </c>
       <c r="G352" t="n">
-        <v>147</v>
+        <v>8.24</v>
       </c>
       <c r="H352" t="n">
-        <v>189</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>B00L9IJL8E</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>TW-PN-P06201</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>113-2530624-3108211</t>
+          <t>114-8441857-9127462</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Aug 2, 2025 4:45:25 AM PDT</t>
+          <t>Aug 6, 2025 3:08:05 AM PDT</t>
         </is>
       </c>
       <c r="E353" t="n">
         <v>1</v>
       </c>
       <c r="F353" t="n">
-        <v>147</v>
+        <v>8.24</v>
       </c>
       <c r="G353" t="n">
-        <v>147</v>
+        <v>8.24</v>
       </c>
       <c r="H353" t="n">
-        <v>189</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>B00L9IJL8E</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>TW-PN-P06201</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>111-1309750-3940245</t>
+          <t>112-9503250-6549021</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Aug 5, 2025 3:37:16 AM PDT</t>
+          <t>Aug 7, 2025 12:46:21 PM PDT</t>
         </is>
       </c>
       <c r="E354" t="n">
         <v>1</v>
       </c>
       <c r="F354" t="n">
-        <v>147</v>
+        <v>8.24</v>
       </c>
       <c r="G354" t="n">
-        <v>147</v>
+        <v>8.24</v>
       </c>
       <c r="H354" t="n">
-        <v>189</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>B0BDLDVB4J</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>TW-CRI-2010002</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>114-2637416-4341010</t>
+          <t>113-0549835-5849043</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 4:07:09 AM PDT</t>
+          <t>Aug 8, 2025 12:02:17 AM PDT</t>
         </is>
       </c>
       <c r="E355" t="n">
         <v>1</v>
       </c>
       <c r="F355" t="n">
-        <v>7.8</v>
+        <v>8.24</v>
       </c>
       <c r="G355" t="n">
-        <v>7.8</v>
+        <v>8.24</v>
       </c>
       <c r="H355" t="n">
-        <v>8.99</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>B0BDLDVB4J</t>
+          <t>B0DJYNJRC4</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TW-CRI-2010002</t>
+          <t>TW-CRI-2007232</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>112-7530071-3101008</t>
+          <t>113-8615898-9685818</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Aug 11, 2025 9:31:53 PM PDT</t>
+          <t>Aug 8, 2025 8:43:24 AM PDT</t>
         </is>
       </c>
       <c r="E356" t="n">
         <v>1</v>
       </c>
       <c r="F356" t="n">
-        <v>7.8</v>
+        <v>8.24</v>
       </c>
       <c r="G356" t="n">
-        <v>7.8</v>
+        <v>8.24</v>
       </c>
       <c r="H356" t="n">
-        <v>8.99</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>B0D69135B6</t>
+          <t>B0DMRV12HR</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TW-LIT-410C12AMZ</t>
+          <t>TW-CRI-2010001-3pk</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>112-3404335-7257812</t>
+          <t>113-0904756-0808209</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Jul 30, 2025 6:10:27 AM PDT</t>
+          <t>Aug 8, 2025 11:28:49 PM PDT</t>
         </is>
       </c>
       <c r="E357" t="n">
         <v>1</v>
       </c>
       <c r="F357" t="n">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>277</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>B0D69135B6</t>
+          <t>B0DMRV12HR</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TW-LIT-410C12AMZ</t>
+          <t>TW-CRI-2010001-3pk</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>112-7418891-8977805</t>
+          <t>114-6487677-1447420</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Jul 31, 2025 3:01:06 AM PDT</t>
+          <t>Aug 8, 2025 11:56:16 PM PDT</t>
         </is>
       </c>
       <c r="E358" t="n">
         <v>1</v>
       </c>
       <c r="F358" t="n">
-        <v>266</v>
+        <v>20.49</v>
       </c>
       <c r="G358" t="n">
-        <v>266</v>
+        <v>20.49</v>
       </c>
       <c r="H358" t="n">
-        <v>277</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>B0BRBT7XVT</t>
+          <t>B0DMRV12HR</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TW-00202H00AMZ</t>
+          <t>TW-CRI-2010001-3pk</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>111-6548336-2590664</t>
+          <t>113-5775713-0792269</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 5:05:48 AM PDT</t>
+          <t>Aug 10, 2025 3:20:00 PM PDT</t>
         </is>
       </c>
       <c r="E359" t="n">
         <v>1</v>
       </c>
       <c r="F359" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>235</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>B0BRBT7XVT</t>
+          <t>B0DMSDMGM6</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TW-00202H00AMZ</t>
+          <t>TW-CRI-2010002-3pk</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>111-6548336-2590664</t>
+          <t>112-0607402-1349043</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Aug 9, 2025 6:33:06 AM PDT</t>
+          <t>Aug 10, 2025 8:39:08 AM PDT</t>
         </is>
       </c>
       <c r="E360" t="n">
         <v>1</v>
       </c>
       <c r="F360" t="n">
-        <v>195</v>
+        <v>19.19</v>
       </c>
       <c r="G360" t="n">
-        <v>195</v>
+        <v>19.19</v>
       </c>
       <c r="H360" t="n">
-        <v>235</v>
+        <v>26.97</v>
       </c>
     </row>
   </sheetData>
